--- a/tools/excel/aicpa/SOC2_2017_with_rev_2022_new.xlsx
+++ b/tools/excel/aicpa/SOC2_2017_with_rev_2022_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\aicpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3B00D7-5750-4A74-BD30-52F6109E9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2871F8-8EDF-49A1-BC5D-81D411AA00B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1198">
   <si>
     <t>type</t>
   </si>
@@ -3648,6 +3648,39 @@
   </si>
   <si>
     <t>Realiza monitorización continua [P][C]: Se llevan a cabo procedimientos continuos para monitorizar la efectividad de los controles sobre la información personal y para tomar acciones correctivas oportunas cuando sea necesario.</t>
+  </si>
+  <si>
+    <t>urn_id</t>
+  </si>
+  <si>
+    <t>c6.5.1</t>
+  </si>
+  <si>
+    <t>cc6.6</t>
+  </si>
+  <si>
+    <t>cc6.6.1</t>
+  </si>
+  <si>
+    <t>cc6.6.2</t>
+  </si>
+  <si>
+    <t>cc6.6.3</t>
+  </si>
+  <si>
+    <t>cc6.6.4</t>
+  </si>
+  <si>
+    <t>cc6.7</t>
+  </si>
+  <si>
+    <t>cc6.7.1</t>
+  </si>
+  <si>
+    <t>cc6.7.2</t>
+  </si>
+  <si>
+    <t>CC6.5.1</t>
   </si>
 </sst>
 </file>
@@ -4335,23 +4368,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G376"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="71" style="29" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" customWidth="1"/>
-    <col min="7" max="7" width="85.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="71" style="29" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" customWidth="1"/>
+    <col min="8" max="8" width="85.5546875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4361,20 +4394,23 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>1</v>
@@ -4382,16 +4418,17 @@
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7">
         <v>2</v>
@@ -4399,20 +4436,21 @@
       <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -4422,16 +4460,17 @@
       <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -4441,16 +4480,17 @@
       <c r="C5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -4460,16 +4500,17 @@
       <c r="C6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -4479,16 +4520,17 @@
       <c r="C7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -4498,16 +4540,17 @@
       <c r="C8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>2</v>
@@ -4515,20 +4558,21 @@
       <c r="C9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
@@ -4538,16 +4582,17 @@
       <c r="C10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
@@ -4557,16 +4602,17 @@
       <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -4576,16 +4622,17 @@
       <c r="C12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -4595,16 +4642,17 @@
       <c r="C13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7">
         <v>2</v>
@@ -4612,20 +4660,21 @@
       <c r="C14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -4635,16 +4684,17 @@
       <c r="C15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
@@ -4654,16 +4704,17 @@
       <c r="C16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -4673,16 +4724,17 @@
       <c r="C17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -4692,16 +4744,17 @@
       <c r="C18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
@@ -4711,16 +4764,17 @@
       <c r="C19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
@@ -4730,16 +4784,17 @@
       <c r="C20" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7">
         <v>2</v>
@@ -4747,20 +4802,21 @@
       <c r="C21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
@@ -4770,16 +4826,17 @@
       <c r="C22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
@@ -4789,16 +4846,17 @@
       <c r="C23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
@@ -4808,16 +4866,17 @@
       <c r="C24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -4827,16 +4886,17 @@
       <c r="C25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>42</v>
       </c>
@@ -4846,16 +4906,17 @@
       <c r="C26" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
@@ -4865,16 +4926,17 @@
       <c r="C27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
@@ -4884,16 +4946,17 @@
       <c r="C28" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7">
         <v>2</v>
@@ -4901,20 +4964,21 @@
       <c r="C29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -4924,16 +4988,17 @@
       <c r="C30" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
@@ -4943,16 +5008,17 @@
       <c r="C31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>42</v>
       </c>
@@ -4962,16 +5028,17 @@
       <c r="C32" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>42</v>
       </c>
@@ -4981,16 +5048,17 @@
       <c r="C33" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
@@ -5000,16 +5068,17 @@
       <c r="C34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
@@ -5019,16 +5088,17 @@
       <c r="C35" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4">
         <v>1</v>
@@ -5036,16 +5106,17 @@
       <c r="C36" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14">
         <v>2</v>
@@ -5053,20 +5124,21 @@
       <c r="C37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>42</v>
       </c>
@@ -5076,16 +5148,17 @@
       <c r="C38" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>42</v>
       </c>
@@ -5095,16 +5168,17 @@
       <c r="C39" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>42</v>
       </c>
@@ -5114,16 +5188,17 @@
       <c r="C40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>42</v>
       </c>
@@ -5133,16 +5208,17 @@
       <c r="C41" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>42</v>
       </c>
@@ -5152,16 +5228,17 @@
       <c r="C42" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
@@ -5171,16 +5248,17 @@
       <c r="C43" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="11" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -5190,16 +5268,17 @@
       <c r="C44" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="11" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>42</v>
       </c>
@@ -5209,16 +5288,17 @@
       <c r="C45" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="11" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>42</v>
       </c>
@@ -5228,16 +5308,17 @@
       <c r="C46" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="11" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14">
         <v>2</v>
@@ -5245,20 +5326,21 @@
       <c r="C47" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
@@ -5268,16 +5350,17 @@
       <c r="C48" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>42</v>
       </c>
@@ -5287,16 +5370,17 @@
       <c r="C49" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>42</v>
       </c>
@@ -5306,16 +5390,17 @@
       <c r="C50" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>42</v>
       </c>
@@ -5325,16 +5410,17 @@
       <c r="C51" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>42</v>
       </c>
@@ -5344,16 +5430,17 @@
       <c r="C52" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>42</v>
       </c>
@@ -5363,16 +5450,17 @@
       <c r="C53" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>42</v>
       </c>
@@ -5382,16 +5470,17 @@
       <c r="C54" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>42</v>
       </c>
@@ -5401,16 +5490,17 @@
       <c r="C55" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>42</v>
       </c>
@@ -5420,16 +5510,17 @@
       <c r="C56" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>42</v>
       </c>
@@ -5439,16 +5530,17 @@
       <c r="C57" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>42</v>
       </c>
@@ -5458,16 +5550,17 @@
       <c r="C58" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>42</v>
       </c>
@@ -5477,16 +5570,17 @@
       <c r="C59" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="11"/>
+      <c r="H59" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>42</v>
       </c>
@@ -5496,16 +5590,17 @@
       <c r="C60" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14">
         <v>2</v>
@@ -5513,20 +5608,21 @@
       <c r="C61" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>42</v>
       </c>
@@ -5536,16 +5632,17 @@
       <c r="C62" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="11"/>
+      <c r="H62" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>42</v>
       </c>
@@ -5555,16 +5652,17 @@
       <c r="C63" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="11" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="11"/>
+      <c r="H63" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>42</v>
       </c>
@@ -5574,16 +5672,17 @@
       <c r="C64" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="11"/>
+      <c r="H64" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>42</v>
       </c>
@@ -5593,16 +5692,17 @@
       <c r="C65" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="11"/>
+      <c r="H65" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>42</v>
       </c>
@@ -5612,16 +5712,17 @@
       <c r="C66" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="11"/>
+      <c r="H66" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>42</v>
       </c>
@@ -5631,16 +5732,17 @@
       <c r="C67" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="11"/>
+      <c r="H67" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>42</v>
       </c>
@@ -5650,16 +5752,17 @@
       <c r="C68" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="11" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="11"/>
+      <c r="H68" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>42</v>
       </c>
@@ -5669,16 +5772,17 @@
       <c r="C69" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="11" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="11"/>
+      <c r="H69" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>42</v>
       </c>
@@ -5688,16 +5792,17 @@
       <c r="C70" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="11"/>
+      <c r="H70" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>42</v>
       </c>
@@ -5707,16 +5812,17 @@
       <c r="C71" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="11" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="11"/>
+      <c r="H71" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>42</v>
       </c>
@@ -5726,16 +5832,17 @@
       <c r="C72" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="11"/>
+      <c r="H72" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>42</v>
       </c>
@@ -5745,16 +5852,17 @@
       <c r="C73" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="11"/>
+      <c r="H73" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15">
         <v>1</v>
@@ -5762,16 +5870,17 @@
       <c r="C74" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="12"/>
+      <c r="E74" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="11"/>
+      <c r="G74" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="7">
         <v>2</v>
@@ -5779,20 +5888,21 @@
       <c r="C75" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>42</v>
       </c>
@@ -5802,16 +5912,17 @@
       <c r="C76" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="11"/>
+      <c r="H76" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>42</v>
       </c>
@@ -5821,16 +5932,17 @@
       <c r="C77" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="11"/>
+      <c r="H77" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>42</v>
       </c>
@@ -5840,16 +5952,17 @@
       <c r="C78" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="11"/>
+      <c r="H78" s="11" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>42</v>
       </c>
@@ -5859,16 +5972,17 @@
       <c r="C79" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="11" t="s">
+      <c r="D79" s="10"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="11"/>
+      <c r="H79" s="11" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>42</v>
       </c>
@@ -5878,16 +5992,17 @@
       <c r="C80" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="10"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="11"/>
+      <c r="H80" s="11" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>42</v>
       </c>
@@ -5897,16 +6012,17 @@
       <c r="C81" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="11" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="11"/>
+      <c r="H81" s="11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>42</v>
       </c>
@@ -5916,16 +6032,17 @@
       <c r="C82" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="11"/>
+      <c r="H82" s="11" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>42</v>
       </c>
@@ -5935,16 +6052,17 @@
       <c r="C83" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="11" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11" t="s">
+      <c r="G83" s="11"/>
+      <c r="H83" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>42</v>
       </c>
@@ -5954,16 +6072,17 @@
       <c r="C84" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="11" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="11"/>
+      <c r="H84" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>42</v>
       </c>
@@ -5973,16 +6092,17 @@
       <c r="C85" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="11" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11" t="s">
+      <c r="G85" s="11"/>
+      <c r="H85" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>42</v>
       </c>
@@ -5992,16 +6112,17 @@
       <c r="C86" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="11"/>
+      <c r="H86" s="11" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>42</v>
       </c>
@@ -6011,16 +6132,17 @@
       <c r="C87" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="11" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="11"/>
+      <c r="H87" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>42</v>
       </c>
@@ -6030,16 +6152,17 @@
       <c r="C88" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="11" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="11"/>
+      <c r="H88" s="11" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>42</v>
       </c>
@@ -6049,16 +6172,17 @@
       <c r="C89" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="11" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="11"/>
+      <c r="H89" s="11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>42</v>
       </c>
@@ -6068,16 +6192,17 @@
       <c r="C90" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="11" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="11"/>
+      <c r="H90" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>42</v>
       </c>
@@ -6087,16 +6212,17 @@
       <c r="C91" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="11" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="11"/>
+      <c r="H91" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="7">
         <v>2</v>
@@ -6104,20 +6230,21 @@
       <c r="C92" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="F92" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="G92" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>42</v>
       </c>
@@ -6127,16 +6254,17 @@
       <c r="C93" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="11" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="11"/>
+      <c r="H93" s="11" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>42</v>
       </c>
@@ -6146,16 +6274,17 @@
       <c r="C94" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="11" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11" t="s">
+      <c r="G94" s="11"/>
+      <c r="H94" s="11" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>42</v>
       </c>
@@ -6165,16 +6294,17 @@
       <c r="C95" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="11"/>
+      <c r="H95" s="11" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>42</v>
       </c>
@@ -6184,16 +6314,17 @@
       <c r="C96" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="11"/>
+      <c r="H96" s="11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>42</v>
       </c>
@@ -6203,16 +6334,17 @@
       <c r="C97" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="10"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="11"/>
+      <c r="H97" s="11" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>42</v>
       </c>
@@ -6222,16 +6354,17 @@
       <c r="C98" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="11" t="s">
+      <c r="D98" s="10"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="11"/>
+      <c r="H98" s="11" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>42</v>
       </c>
@@ -6241,16 +6374,17 @@
       <c r="C99" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="11"/>
+      <c r="H99" s="11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>42</v>
       </c>
@@ -6260,16 +6394,17 @@
       <c r="C100" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="10"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="11"/>
+      <c r="H100" s="11" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7">
         <v>2</v>
@@ -6277,20 +6412,21 @@
       <c r="C101" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="G101" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="H101" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>42</v>
       </c>
@@ -6300,16 +6436,17 @@
       <c r="C102" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="11"/>
+      <c r="H102" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>42</v>
       </c>
@@ -6319,16 +6456,17 @@
       <c r="C103" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="11"/>
+      <c r="H103" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>42</v>
       </c>
@@ -6338,16 +6476,17 @@
       <c r="C104" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="11" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="11"/>
+      <c r="H104" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>42</v>
       </c>
@@ -6357,16 +6496,17 @@
       <c r="C105" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="11"/>
+      <c r="H105" s="11" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>42</v>
       </c>
@@ -6376,16 +6516,17 @@
       <c r="C106" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="11" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="11"/>
+      <c r="H106" s="11" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7">
         <v>2</v>
@@ -6393,20 +6534,21 @@
       <c r="C107" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="F107" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="G107" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="H107" s="9" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>42</v>
       </c>
@@ -6416,16 +6558,17 @@
       <c r="C108" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="11" t="s">
+      <c r="D108" s="10"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="11"/>
+      <c r="H108" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>42</v>
       </c>
@@ -6435,16 +6578,17 @@
       <c r="C109" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="11" t="s">
+      <c r="D109" s="10"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="11"/>
+      <c r="H109" s="11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>42</v>
       </c>
@@ -6454,16 +6598,17 @@
       <c r="C110" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="11" t="s">
+      <c r="D110" s="10"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11" t="s">
+      <c r="G110" s="11"/>
+      <c r="H110" s="11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>42</v>
       </c>
@@ -6473,16 +6618,17 @@
       <c r="C111" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="11" t="s">
+      <c r="D111" s="10"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11" t="s">
+      <c r="G111" s="11"/>
+      <c r="H111" s="11" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>42</v>
       </c>
@@ -6492,16 +6638,17 @@
       <c r="C112" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="11" t="s">
+      <c r="D112" s="10"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11" t="s">
+      <c r="G112" s="11"/>
+      <c r="H112" s="11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>42</v>
       </c>
@@ -6511,16 +6658,17 @@
       <c r="C113" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="11" t="s">
+      <c r="D113" s="10"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11" t="s">
+      <c r="G113" s="11"/>
+      <c r="H113" s="11" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4">
         <v>1</v>
@@ -6528,16 +6676,17 @@
       <c r="C114" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="12"/>
+      <c r="E114" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="11"/>
+      <c r="G114" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="7">
         <v>2</v>
@@ -6545,20 +6694,21 @@
       <c r="C115" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="F115" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="G115" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="H115" s="9" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>42</v>
       </c>
@@ -6568,16 +6718,17 @@
       <c r="C116" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="11" t="s">
+      <c r="D116" s="10"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11" t="s">
+      <c r="G116" s="11"/>
+      <c r="H116" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>42</v>
       </c>
@@ -6587,16 +6738,17 @@
       <c r="C117" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="11" t="s">
+      <c r="D117" s="10"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11" t="s">
+      <c r="G117" s="11"/>
+      <c r="H117" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>42</v>
       </c>
@@ -6606,16 +6758,17 @@
       <c r="C118" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="11" t="s">
+      <c r="D118" s="10"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="11"/>
+      <c r="H118" s="11" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>42</v>
       </c>
@@ -6625,16 +6778,17 @@
       <c r="C119" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D119" s="26"/>
-      <c r="E119" s="11" t="s">
+      <c r="D119" s="10"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="11"/>
+      <c r="H119" s="11" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>42</v>
       </c>
@@ -6644,16 +6798,17 @@
       <c r="C120" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="11" t="s">
+      <c r="D120" s="10"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="11"/>
+      <c r="H120" s="11" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>42</v>
       </c>
@@ -6663,16 +6818,17 @@
       <c r="C121" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D121" s="26"/>
-      <c r="E121" s="11" t="s">
+      <c r="D121" s="10"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="11"/>
+      <c r="H121" s="11" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>42</v>
       </c>
@@ -6682,16 +6838,17 @@
       <c r="C122" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D122" s="26"/>
-      <c r="E122" s="11" t="s">
+      <c r="D122" s="10"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="11"/>
+      <c r="H122" s="11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>42</v>
       </c>
@@ -6701,16 +6858,17 @@
       <c r="C123" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D123" s="28"/>
-      <c r="E123" s="11" t="s">
+      <c r="D123" s="16"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="11"/>
+      <c r="H123" s="11" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="7">
         <v>2</v>
@@ -6718,20 +6876,21 @@
       <c r="C124" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="F124" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="G124" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="H124" s="9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>42</v>
       </c>
@@ -6741,16 +6900,17 @@
       <c r="C125" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="11" t="s">
+      <c r="D125" s="10"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="11"/>
+      <c r="H125" s="11" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>42</v>
       </c>
@@ -6760,16 +6920,17 @@
       <c r="C126" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D126" s="26"/>
-      <c r="E126" s="11" t="s">
+      <c r="D126" s="10"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11" t="s">
+      <c r="G126" s="11"/>
+      <c r="H126" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>42</v>
       </c>
@@ -6779,16 +6940,17 @@
       <c r="C127" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D127" s="26"/>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="10"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11" t="s">
+      <c r="G127" s="11"/>
+      <c r="H127" s="11" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4">
         <v>1</v>
@@ -6796,16 +6958,17 @@
       <c r="C128" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="12"/>
+      <c r="E128" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="11"/>
+      <c r="G128" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="G128" s="11"/>
-    </row>
-    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H128" s="11"/>
+    </row>
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="7">
         <v>2</v>
@@ -6813,20 +6976,21 @@
       <c r="C129" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="F129" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="H129" s="9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>42</v>
       </c>
@@ -6836,16 +7000,17 @@
       <c r="C130" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="11" t="s">
+      <c r="D130" s="10"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="11"/>
+      <c r="H130" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>42</v>
       </c>
@@ -6855,16 +7020,17 @@
       <c r="C131" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="11" t="s">
+      <c r="D131" s="10"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="11"/>
+      <c r="H131" s="11" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>42</v>
       </c>
@@ -6874,16 +7040,17 @@
       <c r="C132" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D132" s="26"/>
-      <c r="E132" s="11" t="s">
+      <c r="D132" s="10"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="11"/>
+      <c r="H132" s="11" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>42</v>
       </c>
@@ -6893,16 +7060,17 @@
       <c r="C133" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="11" t="s">
+      <c r="D133" s="10"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="11"/>
+      <c r="H133" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>42</v>
       </c>
@@ -6912,16 +7080,17 @@
       <c r="C134" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D134" s="26"/>
-      <c r="E134" s="11" t="s">
+      <c r="D134" s="10"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="11"/>
+      <c r="H134" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>42</v>
       </c>
@@ -6931,16 +7100,17 @@
       <c r="C135" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="11" t="s">
+      <c r="D135" s="10"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="11"/>
+      <c r="H135" s="11" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="7">
         <v>2</v>
@@ -6948,20 +7118,21 @@
       <c r="C136" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="F136" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="G136" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="H136" s="9" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>42</v>
       </c>
@@ -6971,16 +7142,17 @@
       <c r="C137" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D137" s="26"/>
-      <c r="E137" s="11" t="s">
+      <c r="D137" s="10"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11" t="s">
+      <c r="G137" s="11"/>
+      <c r="H137" s="11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>42</v>
       </c>
@@ -6990,16 +7162,17 @@
       <c r="C138" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="D138" s="26"/>
-      <c r="E138" s="11" t="s">
+      <c r="D138" s="10"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11" t="s">
+      <c r="G138" s="11"/>
+      <c r="H138" s="11" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>42</v>
       </c>
@@ -7009,16 +7182,17 @@
       <c r="C139" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D139" s="26"/>
-      <c r="E139" s="11" t="s">
+      <c r="D139" s="10"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11" t="s">
+      <c r="G139" s="11"/>
+      <c r="H139" s="11" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>42</v>
       </c>
@@ -7028,16 +7202,17 @@
       <c r="C140" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D140" s="26"/>
-      <c r="E140" s="11" t="s">
+      <c r="D140" s="10"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11" t="s">
+      <c r="G140" s="11"/>
+      <c r="H140" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="7">
         <v>2</v>
@@ -7045,18 +7220,19 @@
       <c r="C141" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="8"/>
+      <c r="E141" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="F141" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>42</v>
       </c>
@@ -7066,16 +7242,17 @@
       <c r="C142" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D142" s="26"/>
-      <c r="E142" s="11" t="s">
+      <c r="D142" s="10"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11" t="s">
+      <c r="G142" s="11"/>
+      <c r="H142" s="11" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>42</v>
       </c>
@@ -7085,16 +7262,17 @@
       <c r="C143" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D143" s="26"/>
-      <c r="E143" s="11" t="s">
+      <c r="D143" s="10"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11" t="s">
+      <c r="G143" s="11"/>
+      <c r="H143" s="11" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>42</v>
       </c>
@@ -7104,16 +7282,17 @@
       <c r="C144" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D144" s="26"/>
-      <c r="E144" s="11" t="s">
+      <c r="D144" s="10"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11" t="s">
+      <c r="G144" s="11"/>
+      <c r="H144" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>42</v>
       </c>
@@ -7123,16 +7302,17 @@
       <c r="C145" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D145" s="26"/>
-      <c r="E145" s="11" t="s">
+      <c r="D145" s="10"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11" t="s">
+      <c r="G145" s="11"/>
+      <c r="H145" s="11" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>42</v>
       </c>
@@ -7142,16 +7322,17 @@
       <c r="C146" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D146" s="26"/>
-      <c r="E146" s="11" t="s">
+      <c r="D146" s="10"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11" t="s">
+      <c r="G146" s="11"/>
+      <c r="H146" s="11" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>42</v>
       </c>
@@ -7161,16 +7342,17 @@
       <c r="C147" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="D147" s="26"/>
-      <c r="E147" s="11" t="s">
+      <c r="D147" s="10"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11" t="s">
+      <c r="G147" s="11"/>
+      <c r="H147" s="11" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4">
         <v>1</v>
@@ -7178,16 +7360,17 @@
       <c r="C148" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="12"/>
+      <c r="E148" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="E148" s="11"/>
-      <c r="F148" s="18" t="s">
+      <c r="F148" s="11"/>
+      <c r="G148" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="G148" s="11"/>
-    </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H148" s="11"/>
+    </row>
+    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
       <c r="B149" s="14">
         <v>2</v>
@@ -7196,15 +7379,16 @@
         <v>505</v>
       </c>
       <c r="D149" s="8"/>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="8"/>
+      <c r="F149" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="9"/>
+      <c r="H149" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>42</v>
       </c>
@@ -7214,16 +7398,17 @@
       <c r="C150" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="11" t="s">
+      <c r="D150" s="10"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11" t="s">
+      <c r="G150" s="11"/>
+      <c r="H150" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>42</v>
       </c>
@@ -7233,16 +7418,17 @@
       <c r="C151" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="D151" s="26"/>
-      <c r="E151" s="11" t="s">
+      <c r="D151" s="10"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="11"/>
+      <c r="H151" s="11" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>42</v>
       </c>
@@ -7252,16 +7438,17 @@
       <c r="C152" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="D152" s="26"/>
-      <c r="E152" s="11" t="s">
+      <c r="D152" s="10"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="11"/>
+      <c r="H152" s="11" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>42</v>
       </c>
@@ -7271,16 +7458,17 @@
       <c r="C153" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D153" s="26"/>
-      <c r="E153" s="11" t="s">
+      <c r="D153" s="10"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="11"/>
+      <c r="H153" s="11" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>42</v>
       </c>
@@ -7290,16 +7478,17 @@
       <c r="C154" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="D154" s="26"/>
-      <c r="E154" s="11" t="s">
+      <c r="D154" s="10"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11" t="s">
+      <c r="G154" s="11"/>
+      <c r="H154" s="11" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>42</v>
       </c>
@@ -7309,16 +7498,17 @@
       <c r="C155" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="D155" s="26"/>
-      <c r="E155" s="11" t="s">
+      <c r="D155" s="10"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11" t="s">
+      <c r="G155" s="11"/>
+      <c r="H155" s="11" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>42</v>
       </c>
@@ -7328,16 +7518,17 @@
       <c r="C156" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="11" t="s">
+      <c r="D156" s="10"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11" t="s">
+      <c r="G156" s="11"/>
+      <c r="H156" s="11" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>42</v>
       </c>
@@ -7347,16 +7538,17 @@
       <c r="C157" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="D157" s="26"/>
-      <c r="E157" s="11" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11" t="s">
+      <c r="G157" s="11"/>
+      <c r="H157" s="11" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>42</v>
       </c>
@@ -7366,16 +7558,17 @@
       <c r="C158" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="D158" s="26"/>
-      <c r="E158" s="11" t="s">
+      <c r="D158" s="10"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11" t="s">
+      <c r="G158" s="11"/>
+      <c r="H158" s="11" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>42</v>
       </c>
@@ -7385,16 +7578,17 @@
       <c r="C159" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="D159" s="26"/>
-      <c r="E159" s="11" t="s">
+      <c r="D159" s="10"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11" t="s">
+      <c r="G159" s="11"/>
+      <c r="H159" s="11" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>42</v>
       </c>
@@ -7404,16 +7598,17 @@
       <c r="C160" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="D160" s="26"/>
-      <c r="E160" s="11" t="s">
+      <c r="D160" s="10"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11" t="s">
+      <c r="G160" s="11"/>
+      <c r="H160" s="11" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>42</v>
       </c>
@@ -7423,16 +7618,17 @@
       <c r="C161" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="D161" s="26"/>
-      <c r="E161" s="11" t="s">
+      <c r="D161" s="10"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11" t="s">
+      <c r="G161" s="11"/>
+      <c r="H161" s="11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>42</v>
       </c>
@@ -7442,16 +7638,17 @@
       <c r="C162" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="D162" s="26"/>
-      <c r="E162" s="11" t="s">
+      <c r="D162" s="10"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11" t="s">
+      <c r="G162" s="11"/>
+      <c r="H162" s="11" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
       <c r="B163" s="14">
         <v>2</v>
@@ -7460,15 +7657,16 @@
         <v>547</v>
       </c>
       <c r="D163" s="8"/>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="8"/>
+      <c r="F163" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="9" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>42</v>
       </c>
@@ -7478,16 +7676,17 @@
       <c r="C164" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="D164" s="26"/>
-      <c r="E164" s="11" t="s">
+      <c r="D164" s="10"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11" t="s">
+      <c r="G164" s="11"/>
+      <c r="H164" s="11" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>42</v>
       </c>
@@ -7497,16 +7696,17 @@
       <c r="C165" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="D165" s="26"/>
-      <c r="E165" s="11" t="s">
+      <c r="D165" s="10"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11" t="s">
+      <c r="G165" s="11"/>
+      <c r="H165" s="11" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>42</v>
       </c>
@@ -7516,16 +7716,17 @@
       <c r="C166" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="D166" s="26"/>
-      <c r="E166" s="11" t="s">
+      <c r="D166" s="10"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11" t="s">
+      <c r="G166" s="11"/>
+      <c r="H166" s="11" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
       <c r="B167" s="14">
         <v>2</v>
@@ -7534,15 +7735,16 @@
         <v>559</v>
       </c>
       <c r="D167" s="8"/>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="8"/>
+      <c r="F167" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="9"/>
+      <c r="H167" s="9" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>42</v>
       </c>
@@ -7552,16 +7754,17 @@
       <c r="C168" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D168" s="26"/>
-      <c r="E168" s="11" t="s">
+      <c r="D168" s="10"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11" t="s">
+      <c r="G168" s="11"/>
+      <c r="H168" s="11" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>42</v>
       </c>
@@ -7571,16 +7774,17 @@
       <c r="C169" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="D169" s="26"/>
-      <c r="E169" s="11" t="s">
+      <c r="D169" s="10"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="11"/>
+      <c r="H169" s="11" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>42</v>
       </c>
@@ -7590,16 +7794,17 @@
       <c r="C170" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D170" s="26"/>
-      <c r="E170" s="11" t="s">
+      <c r="D170" s="10"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11" t="s">
+      <c r="G170" s="11"/>
+      <c r="H170" s="11" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>42</v>
       </c>
@@ -7609,16 +7814,17 @@
       <c r="C171" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="D171" s="26"/>
-      <c r="E171" s="11" t="s">
+      <c r="D171" s="10"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11" t="s">
+      <c r="G171" s="11"/>
+      <c r="H171" s="11" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="14">
         <v>2</v>
@@ -7627,15 +7833,16 @@
         <v>574</v>
       </c>
       <c r="D172" s="8"/>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="8"/>
+      <c r="F172" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="9"/>
+      <c r="H172" s="9" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>42</v>
       </c>
@@ -7645,16 +7852,17 @@
       <c r="C173" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="D173" s="26"/>
-      <c r="E173" s="11" t="s">
+      <c r="D173" s="10"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11" t="s">
+      <c r="G173" s="11"/>
+      <c r="H173" s="11" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>42</v>
       </c>
@@ -7664,16 +7872,17 @@
       <c r="C174" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="D174" s="26"/>
-      <c r="E174" s="11" t="s">
+      <c r="D174" s="10"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11" t="s">
+      <c r="G174" s="11"/>
+      <c r="H174" s="11" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>42</v>
       </c>
@@ -7683,16 +7892,17 @@
       <c r="C175" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="D175" s="26"/>
-      <c r="E175" s="11" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11" t="s">
+      <c r="G175" s="11"/>
+      <c r="H175" s="11" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
         <v>42</v>
       </c>
@@ -7702,16 +7912,17 @@
       <c r="C176" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="D176" s="26"/>
-      <c r="E176" s="11" t="s">
+      <c r="D176" s="10"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11" t="s">
+      <c r="G176" s="11"/>
+      <c r="H176" s="11" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="14">
         <v>2</v>
@@ -7720,15 +7931,16 @@
         <v>589</v>
       </c>
       <c r="D177" s="8"/>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="8"/>
+      <c r="F177" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="9" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>42</v>
       </c>
@@ -7736,18 +7948,21 @@
         <v>3</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="D178" s="26"/>
-      <c r="E178" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E178" s="26"/>
+      <c r="F178" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11" t="s">
+      <c r="G178" s="11"/>
+      <c r="H178" s="11" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="14">
         <v>2</v>
@@ -7756,15 +7971,16 @@
         <v>595</v>
       </c>
       <c r="D179" s="8"/>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="8"/>
+      <c r="F179" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>42</v>
       </c>
@@ -7774,16 +7990,17 @@
       <c r="C180" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="D180" s="26"/>
-      <c r="E180" s="11" t="s">
+      <c r="D180" s="10"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11" t="s">
+      <c r="G180" s="11"/>
+      <c r="H180" s="11" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>42</v>
       </c>
@@ -7793,16 +8010,17 @@
       <c r="C181" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="D181" s="26"/>
-      <c r="E181" s="11" t="s">
+      <c r="D181" s="10"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11" t="s">
+      <c r="G181" s="11"/>
+      <c r="H181" s="11" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
         <v>42</v>
       </c>
@@ -7812,16 +8030,17 @@
       <c r="C182" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="D182" s="26"/>
-      <c r="E182" s="11" t="s">
+      <c r="D182" s="10"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11" t="s">
+      <c r="G182" s="11"/>
+      <c r="H182" s="11" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
         <v>42</v>
       </c>
@@ -7831,16 +8050,17 @@
       <c r="C183" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="D183" s="26"/>
-      <c r="E183" s="11" t="s">
+      <c r="D183" s="10"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11" t="s">
+      <c r="G183" s="11"/>
+      <c r="H183" s="11" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14">
         <v>2</v>
@@ -7849,15 +8069,16 @@
         <v>610</v>
       </c>
       <c r="D184" s="8"/>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="8"/>
+      <c r="F184" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9" t="s">
+      <c r="G184" s="9"/>
+      <c r="H184" s="9" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>42</v>
       </c>
@@ -7867,16 +8088,17 @@
       <c r="C185" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="D185" s="26"/>
-      <c r="E185" s="11" t="s">
+      <c r="D185" s="10"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11" t="s">
+      <c r="G185" s="11"/>
+      <c r="H185" s="11" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
         <v>42</v>
       </c>
@@ -7886,16 +8108,17 @@
       <c r="C186" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="D186" s="26"/>
-      <c r="E186" s="11" t="s">
+      <c r="D186" s="10"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11" t="s">
+      <c r="G186" s="11"/>
+      <c r="H186" s="11" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="14" t="s">
         <v>42</v>
       </c>
@@ -7905,16 +8128,17 @@
       <c r="C187" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="D187" s="26"/>
-      <c r="E187" s="11" t="s">
+      <c r="D187" s="10"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11" t="s">
+      <c r="G187" s="11"/>
+      <c r="H187" s="11" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>42</v>
       </c>
@@ -7924,16 +8148,17 @@
       <c r="C188" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="D188" s="26"/>
-      <c r="E188" s="11" t="s">
+      <c r="D188" s="10"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11" t="s">
+      <c r="G188" s="11"/>
+      <c r="H188" s="11" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="14">
         <v>2</v>
@@ -7942,15 +8167,16 @@
         <v>625</v>
       </c>
       <c r="D189" s="8"/>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="8"/>
+      <c r="F189" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9" t="s">
+      <c r="G189" s="9"/>
+      <c r="H189" s="9" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>42</v>
       </c>
@@ -7960,16 +8186,17 @@
       <c r="C190" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="D190" s="26"/>
-      <c r="E190" s="11" t="s">
+      <c r="D190" s="10"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11" t="s">
+      <c r="G190" s="11"/>
+      <c r="H190" s="11" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>42</v>
       </c>
@@ -7979,16 +8206,17 @@
       <c r="C191" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="D191" s="26"/>
-      <c r="E191" s="11" t="s">
+      <c r="D191" s="10"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11" t="s">
+      <c r="G191" s="11"/>
+      <c r="H191" s="11" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>42</v>
       </c>
@@ -7998,16 +8226,17 @@
       <c r="C192" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="D192" s="26"/>
-      <c r="E192" s="11" t="s">
+      <c r="D192" s="10"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11" t="s">
+      <c r="G192" s="11"/>
+      <c r="H192" s="11" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="14" t="s">
         <v>42</v>
       </c>
@@ -8017,16 +8246,17 @@
       <c r="C193" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="D193" s="26"/>
-      <c r="E193" s="11" t="s">
+      <c r="D193" s="10"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11" t="s">
+      <c r="G193" s="11"/>
+      <c r="H193" s="11" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
         <v>42</v>
       </c>
@@ -8036,16 +8266,17 @@
       <c r="C194" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="11" t="s">
+      <c r="D194" s="10"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11" t="s">
+      <c r="G194" s="11"/>
+      <c r="H194" s="11" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="15"/>
       <c r="B195" s="15">
         <v>1</v>
@@ -8053,16 +8284,17 @@
       <c r="C195" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="12"/>
+      <c r="E195" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="E195" s="11"/>
-      <c r="F195" s="13" t="s">
+      <c r="F195" s="11"/>
+      <c r="G195" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="G195" s="11"/>
-    </row>
-    <row r="196" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H195" s="11"/>
+    </row>
+    <row r="196" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="7">
         <v>2</v>
@@ -8071,15 +8303,16 @@
         <v>646</v>
       </c>
       <c r="D196" s="8"/>
-      <c r="E196" s="9" t="s">
+      <c r="E196" s="8"/>
+      <c r="F196" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9" t="s">
+      <c r="G196" s="9"/>
+      <c r="H196" s="9" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>42</v>
       </c>
@@ -8089,16 +8322,17 @@
       <c r="C197" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="D197" s="28"/>
-      <c r="E197" s="19" t="s">
+      <c r="D197" s="16"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="F197" s="19"/>
-      <c r="G197" s="11" t="s">
+      <c r="G197" s="19"/>
+      <c r="H197" s="11" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>42</v>
       </c>
@@ -8108,16 +8342,17 @@
       <c r="C198" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="D198" s="28"/>
-      <c r="E198" s="19" t="s">
+      <c r="D198" s="16"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="F198" s="19"/>
-      <c r="G198" s="11" t="s">
+      <c r="G198" s="19"/>
+      <c r="H198" s="11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>42</v>
       </c>
@@ -8127,16 +8362,17 @@
       <c r="C199" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="D199" s="28"/>
-      <c r="E199" s="19" t="s">
+      <c r="D199" s="16"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="F199" s="19"/>
-      <c r="G199" s="11" t="s">
+      <c r="G199" s="19"/>
+      <c r="H199" s="11" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>42</v>
       </c>
@@ -8146,16 +8382,17 @@
       <c r="C200" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="D200" s="28"/>
-      <c r="E200" s="19" t="s">
+      <c r="D200" s="16"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="F200" s="19"/>
-      <c r="G200" s="11" t="s">
+      <c r="G200" s="19"/>
+      <c r="H200" s="11" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>42</v>
       </c>
@@ -8165,16 +8402,17 @@
       <c r="C201" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="D201" s="28"/>
-      <c r="E201" s="19" t="s">
+      <c r="D201" s="16"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="19" t="s">
         <v>662</v>
       </c>
-      <c r="F201" s="19"/>
-      <c r="G201" s="11" t="s">
+      <c r="G201" s="19"/>
+      <c r="H201" s="11" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="7">
         <v>2</v>
@@ -8183,15 +8421,16 @@
         <v>664</v>
       </c>
       <c r="D202" s="8"/>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="8"/>
+      <c r="F202" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9" t="s">
+      <c r="G202" s="9"/>
+      <c r="H202" s="9" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>42</v>
       </c>
@@ -8201,16 +8440,17 @@
       <c r="C203" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="D203" s="28"/>
-      <c r="E203" s="11" t="s">
+      <c r="D203" s="16"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11" t="s">
+      <c r="G203" s="11"/>
+      <c r="H203" s="11" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>42</v>
       </c>
@@ -8220,16 +8460,17 @@
       <c r="C204" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="D204" s="28"/>
-      <c r="E204" s="11" t="s">
+      <c r="D204" s="16"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11" t="s">
+      <c r="G204" s="11"/>
+      <c r="H204" s="11" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>42</v>
       </c>
@@ -8239,16 +8480,17 @@
       <c r="C205" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="D205" s="28"/>
-      <c r="E205" s="11" t="s">
+      <c r="D205" s="16"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11" t="s">
+      <c r="G205" s="11"/>
+      <c r="H205" s="11" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>42</v>
       </c>
@@ -8258,16 +8500,17 @@
       <c r="C206" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="D206" s="28"/>
-      <c r="E206" s="11" t="s">
+      <c r="D206" s="16"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11" t="s">
+      <c r="G206" s="11"/>
+      <c r="H206" s="11" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="7">
         <v>2</v>
@@ -8276,15 +8519,16 @@
         <v>679</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="8"/>
+      <c r="F207" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9" t="s">
+      <c r="G207" s="9"/>
+      <c r="H207" s="9" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>42</v>
       </c>
@@ -8294,16 +8538,17 @@
       <c r="C208" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="D208" s="28"/>
-      <c r="E208" s="11" t="s">
+      <c r="D208" s="16"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11" t="s">
+      <c r="G208" s="11"/>
+      <c r="H208" s="11" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>42</v>
       </c>
@@ -8313,16 +8558,17 @@
       <c r="C209" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="D209" s="28"/>
-      <c r="E209" s="11" t="s">
+      <c r="D209" s="16"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11" t="s">
+      <c r="G209" s="11"/>
+      <c r="H209" s="11" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>42</v>
       </c>
@@ -8332,16 +8578,17 @@
       <c r="C210" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="D210" s="28"/>
-      <c r="E210" s="11" t="s">
+      <c r="D210" s="16"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11" t="s">
+      <c r="G210" s="11"/>
+      <c r="H210" s="11" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>42</v>
       </c>
@@ -8351,16 +8598,17 @@
       <c r="C211" s="16" t="s">
         <v>691</v>
       </c>
-      <c r="D211" s="28"/>
-      <c r="E211" s="11" t="s">
+      <c r="D211" s="16"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11" t="s">
+      <c r="G211" s="11"/>
+      <c r="H211" s="11" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>42</v>
       </c>
@@ -8370,16 +8618,17 @@
       <c r="C212" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="D212" s="28"/>
-      <c r="E212" s="11" t="s">
+      <c r="D212" s="16"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11" t="s">
+      <c r="G212" s="11"/>
+      <c r="H212" s="11" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>42</v>
       </c>
@@ -8389,16 +8638,17 @@
       <c r="C213" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="D213" s="28"/>
-      <c r="E213" s="11" t="s">
+      <c r="D213" s="16"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11" t="s">
+      <c r="G213" s="11"/>
+      <c r="H213" s="11" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>42</v>
       </c>
@@ -8408,16 +8658,17 @@
       <c r="C214" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="D214" s="28"/>
-      <c r="E214" s="11" t="s">
+      <c r="D214" s="16"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11" t="s">
+      <c r="G214" s="11"/>
+      <c r="H214" s="11" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="B215" s="7">
         <v>2</v>
@@ -8425,16 +8676,17 @@
       <c r="C215" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="D215" s="8"/>
-      <c r="E215" s="9" t="s">
+      <c r="D215" s="20"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9" t="s">
+      <c r="G215" s="9"/>
+      <c r="H215" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>42</v>
       </c>
@@ -8444,16 +8696,17 @@
       <c r="C216" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="D216" s="28"/>
-      <c r="E216" s="11" t="s">
+      <c r="D216" s="16"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11" t="s">
+      <c r="G216" s="11"/>
+      <c r="H216" s="11" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>42</v>
       </c>
@@ -8463,16 +8716,17 @@
       <c r="C217" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="D217" s="28"/>
-      <c r="E217" s="11" t="s">
+      <c r="D217" s="16"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11" t="s">
+      <c r="G217" s="11"/>
+      <c r="H217" s="11" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>42</v>
       </c>
@@ -8482,16 +8736,17 @@
       <c r="C218" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="D218" s="28"/>
-      <c r="E218" s="11" t="s">
+      <c r="D218" s="16"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11" t="s">
+      <c r="G218" s="11"/>
+      <c r="H218" s="11" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>42</v>
       </c>
@@ -8501,16 +8756,17 @@
       <c r="C219" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="D219" s="28"/>
-      <c r="E219" s="11" t="s">
+      <c r="D219" s="16"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11" t="s">
+      <c r="G219" s="11"/>
+      <c r="H219" s="11" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>42</v>
       </c>
@@ -8520,16 +8776,17 @@
       <c r="C220" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="D220" s="28"/>
-      <c r="E220" s="11" t="s">
+      <c r="D220" s="16"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11" t="s">
+      <c r="G220" s="11"/>
+      <c r="H220" s="11" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>42</v>
       </c>
@@ -8539,16 +8796,17 @@
       <c r="C221" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="D221" s="28"/>
-      <c r="E221" s="11" t="s">
+      <c r="D221" s="16"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11" t="s">
+      <c r="G221" s="11"/>
+      <c r="H221" s="11" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>42</v>
       </c>
@@ -8558,16 +8816,17 @@
       <c r="C222" s="16" t="s">
         <v>724</v>
       </c>
-      <c r="D222" s="28"/>
-      <c r="E222" s="11" t="s">
+      <c r="D222" s="16"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11" t="s">
+      <c r="G222" s="11"/>
+      <c r="H222" s="11" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>42</v>
       </c>
@@ -8577,16 +8836,17 @@
       <c r="C223" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="D223" s="28"/>
-      <c r="E223" s="11" t="s">
+      <c r="D223" s="16"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11" t="s">
+      <c r="G223" s="11"/>
+      <c r="H223" s="11" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>42</v>
       </c>
@@ -8596,16 +8856,17 @@
       <c r="C224" s="16" t="s">
         <v>730</v>
       </c>
-      <c r="D224" s="28"/>
-      <c r="E224" s="11" t="s">
+      <c r="D224" s="16"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11" t="s">
+      <c r="G224" s="11"/>
+      <c r="H224" s="11" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>42</v>
       </c>
@@ -8615,16 +8876,17 @@
       <c r="C225" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="D225" s="28"/>
-      <c r="E225" s="11" t="s">
+      <c r="D225" s="16"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11" t="s">
+      <c r="G225" s="11"/>
+      <c r="H225" s="11" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>42</v>
       </c>
@@ -8634,16 +8896,17 @@
       <c r="C226" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="D226" s="28"/>
-      <c r="E226" s="11" t="s">
+      <c r="D226" s="16"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11" t="s">
+      <c r="G226" s="11"/>
+      <c r="H226" s="11" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>42</v>
       </c>
@@ -8653,16 +8916,17 @@
       <c r="C227" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="D227" s="28"/>
-      <c r="E227" s="11" t="s">
+      <c r="D227" s="16"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11" t="s">
+      <c r="G227" s="11"/>
+      <c r="H227" s="11" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>42</v>
       </c>
@@ -8672,16 +8936,17 @@
       <c r="C228" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="D228" s="28"/>
-      <c r="E228" s="11" t="s">
+      <c r="D228" s="16"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11" t="s">
+      <c r="G228" s="11"/>
+      <c r="H228" s="11" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>42</v>
       </c>
@@ -8691,16 +8956,17 @@
       <c r="C229" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="D229" s="28"/>
-      <c r="E229" s="11" t="s">
+      <c r="D229" s="16"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11" t="s">
+      <c r="G229" s="11"/>
+      <c r="H229" s="11" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="7">
         <v>2</v>
@@ -8708,16 +8974,17 @@
       <c r="C230" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="D230" s="8"/>
-      <c r="E230" s="9" t="s">
+      <c r="D230" s="20"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F230" s="21"/>
-      <c r="G230" s="9" t="s">
+      <c r="G230" s="21"/>
+      <c r="H230" s="9" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>42</v>
       </c>
@@ -8727,16 +8994,17 @@
       <c r="C231" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="D231" s="28"/>
-      <c r="E231" s="11" t="s">
+      <c r="D231" s="16"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11" t="s">
+      <c r="G231" s="11"/>
+      <c r="H231" s="11" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>42</v>
       </c>
@@ -8746,16 +9014,17 @@
       <c r="C232" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="D232" s="28"/>
-      <c r="E232" s="11" t="s">
+      <c r="D232" s="16"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11" t="s">
+      <c r="G232" s="11"/>
+      <c r="H232" s="11" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>42</v>
       </c>
@@ -8765,16 +9034,17 @@
       <c r="C233" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="D233" s="28"/>
-      <c r="E233" s="11" t="s">
+      <c r="D233" s="16"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11" t="s">
+      <c r="G233" s="11"/>
+      <c r="H233" s="11" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>42</v>
       </c>
@@ -8784,16 +9054,17 @@
       <c r="C234" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="D234" s="28"/>
-      <c r="E234" s="11" t="s">
+      <c r="D234" s="16"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11" t="s">
+      <c r="G234" s="11"/>
+      <c r="H234" s="11" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>42</v>
       </c>
@@ -8803,16 +9074,17 @@
       <c r="C235" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D235" s="28"/>
-      <c r="E235" s="11" t="s">
+      <c r="D235" s="16"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11" t="s">
+      <c r="G235" s="11"/>
+      <c r="H235" s="11" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>42</v>
       </c>
@@ -8822,16 +9094,17 @@
       <c r="C236" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="D236" s="28"/>
-      <c r="E236" s="11" t="s">
+      <c r="D236" s="16"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11" t="s">
+      <c r="G236" s="11"/>
+      <c r="H236" s="11" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4">
         <v>1</v>
@@ -8839,16 +9112,17 @@
       <c r="C237" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="D237" s="18" t="s">
+      <c r="D237" s="22"/>
+      <c r="E237" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="E237" s="11"/>
-      <c r="F237" s="13" t="s">
+      <c r="F237" s="11"/>
+      <c r="G237" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="G237" s="11"/>
-    </row>
-    <row r="238" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H237" s="11"/>
+    </row>
+    <row r="238" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="7">
         <v>2</v>
@@ -8856,16 +9130,17 @@
       <c r="C238" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="D238" s="8"/>
-      <c r="E238" s="9" t="s">
+      <c r="D238" s="20"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9" t="s">
+      <c r="G238" s="9"/>
+      <c r="H238" s="9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>42</v>
       </c>
@@ -8875,16 +9150,17 @@
       <c r="C239" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="D239" s="28"/>
-      <c r="E239" s="11" t="s">
+      <c r="D239" s="16"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11" t="s">
+      <c r="G239" s="11"/>
+      <c r="H239" s="11" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>42</v>
       </c>
@@ -8894,16 +9170,17 @@
       <c r="C240" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="D240" s="28"/>
-      <c r="E240" s="11" t="s">
+      <c r="D240" s="16"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11" t="s">
+      <c r="G240" s="11"/>
+      <c r="H240" s="11" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>42</v>
       </c>
@@ -8913,16 +9190,17 @@
       <c r="C241" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="D241" s="28"/>
-      <c r="E241" s="11" t="s">
+      <c r="D241" s="16"/>
+      <c r="E241" s="28"/>
+      <c r="F241" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11" t="s">
+      <c r="G241" s="11"/>
+      <c r="H241" s="11" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>42</v>
       </c>
@@ -8932,16 +9210,17 @@
       <c r="C242" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="D242" s="28"/>
-      <c r="E242" s="11" t="s">
+      <c r="D242" s="16"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11" t="s">
+      <c r="G242" s="11"/>
+      <c r="H242" s="11" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>42</v>
       </c>
@@ -8951,16 +9230,17 @@
       <c r="C243" s="16" t="s">
         <v>787</v>
       </c>
-      <c r="D243" s="28"/>
-      <c r="E243" s="11" t="s">
+      <c r="D243" s="16"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11" t="s">
+      <c r="G243" s="11"/>
+      <c r="H243" s="11" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>42</v>
       </c>
@@ -8970,16 +9250,17 @@
       <c r="C244" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="D244" s="28"/>
-      <c r="E244" s="11" t="s">
+      <c r="D244" s="16"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11" t="s">
+      <c r="G244" s="11"/>
+      <c r="H244" s="11" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>42</v>
       </c>
@@ -8989,16 +9270,17 @@
       <c r="C245" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="D245" s="28"/>
-      <c r="E245" s="11" t="s">
+      <c r="D245" s="16"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11" t="s">
+      <c r="G245" s="11"/>
+      <c r="H245" s="11" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>42</v>
       </c>
@@ -9008,16 +9290,17 @@
       <c r="C246" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="D246" s="28"/>
-      <c r="E246" s="11" t="s">
+      <c r="D246" s="16"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11" t="s">
+      <c r="G246" s="11"/>
+      <c r="H246" s="11" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>42</v>
       </c>
@@ -9027,16 +9310,17 @@
       <c r="C247" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="D247" s="28"/>
-      <c r="E247" s="11" t="s">
+      <c r="D247" s="16"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11" t="s">
+      <c r="G247" s="11"/>
+      <c r="H247" s="11" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>42</v>
       </c>
@@ -9046,16 +9330,17 @@
       <c r="C248" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="D248" s="28"/>
-      <c r="E248" s="11" t="s">
+      <c r="D248" s="16"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11" t="s">
+      <c r="G248" s="11"/>
+      <c r="H248" s="11" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>42</v>
       </c>
@@ -9065,16 +9350,17 @@
       <c r="C249" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="D249" s="28"/>
-      <c r="E249" s="11" t="s">
+      <c r="D249" s="16"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11" t="s">
+      <c r="G249" s="11"/>
+      <c r="H249" s="11" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>42</v>
       </c>
@@ -9084,16 +9370,17 @@
       <c r="C250" s="16" t="s">
         <v>808</v>
       </c>
-      <c r="D250" s="28"/>
-      <c r="E250" s="11" t="s">
+      <c r="D250" s="16"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11" t="s">
+      <c r="G250" s="11"/>
+      <c r="H250" s="11" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>42</v>
       </c>
@@ -9103,16 +9390,17 @@
       <c r="C251" s="16" t="s">
         <v>811</v>
       </c>
-      <c r="D251" s="28"/>
-      <c r="E251" s="11" t="s">
+      <c r="D251" s="16"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11" t="s">
+      <c r="G251" s="11"/>
+      <c r="H251" s="11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>42</v>
       </c>
@@ -9122,16 +9410,17 @@
       <c r="C252" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="D252" s="28"/>
-      <c r="E252" s="11" t="s">
+      <c r="D252" s="16"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11" t="s">
+      <c r="G252" s="11"/>
+      <c r="H252" s="11" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>42</v>
       </c>
@@ -9141,16 +9430,17 @@
       <c r="C253" s="16" t="s">
         <v>817</v>
       </c>
-      <c r="D253" s="28"/>
-      <c r="E253" s="11" t="s">
+      <c r="D253" s="16"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11" t="s">
+      <c r="G253" s="11"/>
+      <c r="H253" s="11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>42</v>
       </c>
@@ -9160,16 +9450,17 @@
       <c r="C254" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="D254" s="28"/>
-      <c r="E254" s="11" t="s">
+      <c r="D254" s="16"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11" t="s">
+      <c r="G254" s="11"/>
+      <c r="H254" s="11" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>42</v>
       </c>
@@ -9179,16 +9470,17 @@
       <c r="C255" s="16" t="s">
         <v>823</v>
       </c>
-      <c r="D255" s="28"/>
-      <c r="E255" s="11" t="s">
+      <c r="D255" s="16"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11" t="s">
+      <c r="G255" s="11"/>
+      <c r="H255" s="11" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>42</v>
       </c>
@@ -9198,16 +9490,17 @@
       <c r="C256" s="16" t="s">
         <v>826</v>
       </c>
-      <c r="D256" s="28"/>
-      <c r="E256" s="11" t="s">
+      <c r="D256" s="16"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11" t="s">
+      <c r="G256" s="11"/>
+      <c r="H256" s="11" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4">
         <v>1</v>
@@ -9215,16 +9508,17 @@
       <c r="C257" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="22"/>
+      <c r="E257" s="18" t="s">
         <v>830</v>
       </c>
-      <c r="E257" s="11"/>
-      <c r="F257" s="13" t="s">
+      <c r="F257" s="11"/>
+      <c r="G257" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="G257" s="11"/>
-    </row>
-    <row r="258" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H257" s="11"/>
+    </row>
+    <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="B258" s="7">
         <v>2</v>
@@ -9232,16 +9526,17 @@
       <c r="C258" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="D258" s="8"/>
-      <c r="E258" s="9" t="s">
+      <c r="D258" s="20"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="F258" s="9"/>
-      <c r="G258" s="9" t="s">
+      <c r="G258" s="9"/>
+      <c r="H258" s="9" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>42</v>
       </c>
@@ -9251,16 +9546,17 @@
       <c r="C259" s="16" t="s">
         <v>835</v>
       </c>
-      <c r="D259" s="28"/>
-      <c r="E259" s="11" t="s">
+      <c r="D259" s="16"/>
+      <c r="E259" s="28"/>
+      <c r="F259" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11" t="s">
+      <c r="G259" s="11"/>
+      <c r="H259" s="11" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>42</v>
       </c>
@@ -9270,16 +9566,17 @@
       <c r="C260" s="16" t="s">
         <v>838</v>
       </c>
-      <c r="D260" s="28"/>
-      <c r="E260" s="11" t="s">
+      <c r="D260" s="16"/>
+      <c r="E260" s="28"/>
+      <c r="F260" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11" t="s">
+      <c r="G260" s="11"/>
+      <c r="H260" s="11" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="B261" s="7">
         <v>2</v>
@@ -9288,15 +9585,16 @@
         <v>841</v>
       </c>
       <c r="D261" s="23"/>
-      <c r="E261" s="9" t="s">
+      <c r="E261" s="23"/>
+      <c r="F261" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9" t="s">
+      <c r="G261" s="9"/>
+      <c r="H261" s="9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>42</v>
       </c>
@@ -9306,16 +9604,17 @@
       <c r="C262" s="16" t="s">
         <v>844</v>
       </c>
-      <c r="D262" s="28"/>
-      <c r="E262" s="11" t="s">
+      <c r="D262" s="16"/>
+      <c r="E262" s="28"/>
+      <c r="F262" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11" t="s">
+      <c r="G262" s="11"/>
+      <c r="H262" s="11" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>42</v>
       </c>
@@ -9325,16 +9624,17 @@
       <c r="C263" s="16" t="s">
         <v>847</v>
       </c>
-      <c r="D263" s="28"/>
-      <c r="E263" s="11" t="s">
+      <c r="D263" s="16"/>
+      <c r="E263" s="28"/>
+      <c r="F263" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11" t="s">
+      <c r="G263" s="11"/>
+      <c r="H263" s="11" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>42</v>
       </c>
@@ -9344,16 +9644,17 @@
       <c r="C264" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="D264" s="28"/>
-      <c r="E264" s="11" t="s">
+      <c r="D264" s="16"/>
+      <c r="E264" s="28"/>
+      <c r="F264" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11" t="s">
+      <c r="G264" s="11"/>
+      <c r="H264" s="11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>42</v>
       </c>
@@ -9363,16 +9664,17 @@
       <c r="C265" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="D265" s="28"/>
-      <c r="E265" s="11" t="s">
+      <c r="D265" s="16"/>
+      <c r="E265" s="28"/>
+      <c r="F265" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11" t="s">
+      <c r="G265" s="11"/>
+      <c r="H265" s="11" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>42</v>
       </c>
@@ -9382,16 +9684,17 @@
       <c r="C266" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="D266" s="28"/>
-      <c r="E266" s="11" t="s">
+      <c r="D266" s="16"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11" t="s">
+      <c r="G266" s="11"/>
+      <c r="H266" s="11" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>42</v>
       </c>
@@ -9401,16 +9704,17 @@
       <c r="C267" s="16" t="s">
         <v>859</v>
       </c>
-      <c r="D267" s="28"/>
-      <c r="E267" s="11" t="s">
+      <c r="D267" s="16"/>
+      <c r="E267" s="28"/>
+      <c r="F267" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11" t="s">
+      <c r="G267" s="11"/>
+      <c r="H267" s="11" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>42</v>
       </c>
@@ -9420,16 +9724,17 @@
       <c r="C268" s="16" t="s">
         <v>862</v>
       </c>
-      <c r="D268" s="28"/>
-      <c r="E268" s="11" t="s">
+      <c r="D268" s="16"/>
+      <c r="E268" s="28"/>
+      <c r="F268" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11" t="s">
+      <c r="G268" s="11"/>
+      <c r="H268" s="11" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>42</v>
       </c>
@@ -9439,16 +9744,17 @@
       <c r="C269" s="16" t="s">
         <v>865</v>
       </c>
-      <c r="D269" s="28"/>
-      <c r="E269" s="11" t="s">
+      <c r="D269" s="16"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11" t="s">
+      <c r="G269" s="11"/>
+      <c r="H269" s="11" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>42</v>
       </c>
@@ -9458,16 +9764,17 @@
       <c r="C270" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="D270" s="28"/>
-      <c r="E270" s="11" t="s">
+      <c r="D270" s="16"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11" t="s">
+      <c r="G270" s="11"/>
+      <c r="H270" s="11" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>42</v>
       </c>
@@ -9477,16 +9784,17 @@
       <c r="C271" s="16" t="s">
         <v>871</v>
       </c>
-      <c r="D271" s="28"/>
-      <c r="E271" s="11" t="s">
+      <c r="D271" s="16"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11" t="s">
+      <c r="G271" s="11"/>
+      <c r="H271" s="11" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>42</v>
       </c>
@@ -9496,16 +9804,17 @@
       <c r="C272" s="16" t="s">
         <v>874</v>
       </c>
-      <c r="D272" s="28"/>
-      <c r="E272" s="11" t="s">
+      <c r="D272" s="16"/>
+      <c r="E272" s="28"/>
+      <c r="F272" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11" t="s">
+      <c r="G272" s="11"/>
+      <c r="H272" s="11" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
         <v>42</v>
       </c>
@@ -9515,16 +9824,17 @@
       <c r="C273" s="16" t="s">
         <v>877</v>
       </c>
-      <c r="D273" s="28"/>
-      <c r="E273" s="11" t="s">
+      <c r="D273" s="16"/>
+      <c r="E273" s="28"/>
+      <c r="F273" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11" t="s">
+      <c r="G273" s="11"/>
+      <c r="H273" s="11" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>42</v>
       </c>
@@ -9534,16 +9844,17 @@
       <c r="C274" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="D274" s="28"/>
-      <c r="E274" s="11" t="s">
+      <c r="D274" s="16"/>
+      <c r="E274" s="28"/>
+      <c r="F274" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11" t="s">
+      <c r="G274" s="11"/>
+      <c r="H274" s="11" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4">
         <v>1</v>
@@ -9551,15 +9862,16 @@
       <c r="C275" s="22" t="s">
         <v>883</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="22"/>
+      <c r="E275" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="E275" s="11"/>
-      <c r="F275" s="13" t="s">
+      <c r="F275" s="11"/>
+      <c r="G275" s="13" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A276" s="14"/>
       <c r="B276" s="14">
         <v>2</v>
@@ -9567,16 +9879,17 @@
       <c r="C276" s="20" t="s">
         <v>886</v>
       </c>
-      <c r="D276" s="8"/>
-      <c r="E276" s="9" t="s">
+      <c r="D276" s="20"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9" t="s">
+      <c r="G276" s="9"/>
+      <c r="H276" s="9" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A277" s="14" t="s">
         <v>42</v>
       </c>
@@ -9586,16 +9899,17 @@
       <c r="C277" s="16" t="s">
         <v>889</v>
       </c>
-      <c r="D277" s="28"/>
-      <c r="E277" s="11" t="s">
+      <c r="D277" s="16"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11" t="s">
+      <c r="G277" s="11"/>
+      <c r="H277" s="11" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="14" t="s">
         <v>42</v>
       </c>
@@ -9605,16 +9919,17 @@
       <c r="C278" s="16" t="s">
         <v>892</v>
       </c>
-      <c r="D278" s="28"/>
-      <c r="E278" s="11" t="s">
+      <c r="D278" s="16"/>
+      <c r="E278" s="28"/>
+      <c r="F278" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11" t="s">
+      <c r="G278" s="11"/>
+      <c r="H278" s="11" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="14" t="s">
         <v>42</v>
       </c>
@@ -9624,16 +9939,17 @@
       <c r="C279" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="D279" s="28"/>
-      <c r="E279" s="11" t="s">
+      <c r="D279" s="16"/>
+      <c r="E279" s="28"/>
+      <c r="F279" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11" t="s">
+      <c r="G279" s="11"/>
+      <c r="H279" s="11" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="14"/>
       <c r="B280" s="14">
         <v>2</v>
@@ -9641,16 +9957,17 @@
       <c r="C280" s="20" t="s">
         <v>898</v>
       </c>
-      <c r="D280" s="8"/>
-      <c r="E280" s="9" t="s">
+      <c r="D280" s="20"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9" t="s">
+      <c r="G280" s="9"/>
+      <c r="H280" s="9" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A281" s="14" t="s">
         <v>42</v>
       </c>
@@ -9660,16 +9977,17 @@
       <c r="C281" s="16" t="s">
         <v>901</v>
       </c>
-      <c r="D281" s="28"/>
-      <c r="E281" s="11" t="s">
+      <c r="D281" s="16"/>
+      <c r="E281" s="28"/>
+      <c r="F281" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="F281" s="11"/>
-      <c r="G281" s="11" t="s">
+      <c r="G281" s="11"/>
+      <c r="H281" s="11" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="14" t="s">
         <v>42</v>
       </c>
@@ -9679,16 +9997,17 @@
       <c r="C282" s="16" t="s">
         <v>904</v>
       </c>
-      <c r="D282" s="28"/>
-      <c r="E282" s="11" t="s">
+      <c r="D282" s="16"/>
+      <c r="E282" s="28"/>
+      <c r="F282" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="F282" s="11"/>
-      <c r="G282" s="11" t="s">
+      <c r="G282" s="11"/>
+      <c r="H282" s="11" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="14" t="s">
         <v>42</v>
       </c>
@@ -9698,16 +10017,17 @@
       <c r="C283" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="D283" s="28"/>
-      <c r="E283" s="11" t="s">
+      <c r="D283" s="16"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11" t="s">
+      <c r="G283" s="11"/>
+      <c r="H283" s="11" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="14" t="s">
         <v>42</v>
       </c>
@@ -9717,16 +10037,17 @@
       <c r="C284" s="16" t="s">
         <v>910</v>
       </c>
-      <c r="D284" s="28"/>
-      <c r="E284" s="11" t="s">
+      <c r="D284" s="16"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11" t="s">
+      <c r="G284" s="11"/>
+      <c r="H284" s="11" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="14" t="s">
         <v>42</v>
       </c>
@@ -9736,16 +10057,17 @@
       <c r="C285" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="D285" s="28"/>
-      <c r="E285" s="11" t="s">
+      <c r="D285" s="16"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11" t="s">
+      <c r="G285" s="11"/>
+      <c r="H285" s="11" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="14" t="s">
         <v>42</v>
       </c>
@@ -9755,16 +10077,17 @@
       <c r="C286" s="16" t="s">
         <v>916</v>
       </c>
-      <c r="D286" s="28"/>
-      <c r="E286" s="11" t="s">
+      <c r="D286" s="16"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11" t="s">
+      <c r="G286" s="11"/>
+      <c r="H286" s="11" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="14" t="s">
         <v>42</v>
       </c>
@@ -9774,16 +10097,17 @@
       <c r="C287" s="16" t="s">
         <v>919</v>
       </c>
-      <c r="D287" s="28"/>
-      <c r="E287" s="11" t="s">
+      <c r="D287" s="16"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="F287" s="11"/>
-      <c r="G287" s="11" t="s">
+      <c r="G287" s="11"/>
+      <c r="H287" s="11" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="14" t="s">
         <v>42</v>
       </c>
@@ -9793,16 +10117,17 @@
       <c r="C288" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="D288" s="28"/>
-      <c r="E288" s="11" t="s">
+      <c r="D288" s="16"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11" t="s">
+      <c r="G288" s="11"/>
+      <c r="H288" s="11" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A289" s="14" t="s">
         <v>42</v>
       </c>
@@ -9812,16 +10137,17 @@
       <c r="C289" s="16" t="s">
         <v>925</v>
       </c>
-      <c r="D289" s="28"/>
-      <c r="E289" s="11" t="s">
+      <c r="D289" s="16"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11" t="s">
+      <c r="G289" s="11"/>
+      <c r="H289" s="11" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" s="14" t="s">
         <v>42</v>
       </c>
@@ -9831,16 +10157,17 @@
       <c r="C290" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="D290" s="28"/>
-      <c r="E290" s="11" t="s">
+      <c r="D290" s="16"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11" t="s">
+      <c r="G290" s="11"/>
+      <c r="H290" s="11" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="14" t="s">
         <v>42</v>
       </c>
@@ -9850,16 +10177,17 @@
       <c r="C291" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="D291" s="28"/>
-      <c r="E291" s="11" t="s">
+      <c r="D291" s="16"/>
+      <c r="E291" s="28"/>
+      <c r="F291" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="F291" s="11"/>
-      <c r="G291" s="11" t="s">
+      <c r="G291" s="11"/>
+      <c r="H291" s="11" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="14">
         <v>2</v>
@@ -9867,16 +10195,17 @@
       <c r="C292" s="20" t="s">
         <v>934</v>
       </c>
-      <c r="D292" s="8"/>
-      <c r="E292" s="9" t="s">
+      <c r="D292" s="20"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="F292" s="9"/>
-      <c r="G292" s="9" t="s">
+      <c r="G292" s="9"/>
+      <c r="H292" s="9" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A293" s="14" t="s">
         <v>42</v>
       </c>
@@ -9886,16 +10215,17 @@
       <c r="C293" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="D293" s="28"/>
-      <c r="E293" s="11" t="s">
+      <c r="D293" s="16"/>
+      <c r="E293" s="28"/>
+      <c r="F293" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="F293" s="11"/>
-      <c r="G293" s="11" t="s">
+      <c r="G293" s="11"/>
+      <c r="H293" s="11" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="14" t="s">
         <v>42</v>
       </c>
@@ -9905,16 +10235,17 @@
       <c r="C294" s="16" t="s">
         <v>940</v>
       </c>
-      <c r="D294" s="28"/>
-      <c r="E294" s="11" t="s">
+      <c r="D294" s="16"/>
+      <c r="E294" s="28"/>
+      <c r="F294" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="F294" s="11"/>
-      <c r="G294" s="11" t="s">
+      <c r="G294" s="11"/>
+      <c r="H294" s="11" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="15"/>
       <c r="B295" s="15">
         <v>1</v>
@@ -9922,16 +10253,17 @@
       <c r="C295" s="22" t="s">
         <v>943</v>
       </c>
-      <c r="D295" s="18" t="s">
+      <c r="D295" s="22"/>
+      <c r="E295" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="E295" s="11"/>
-      <c r="F295" s="13" t="s">
+      <c r="F295" s="11"/>
+      <c r="G295" s="13" t="s">
         <v>945</v>
       </c>
-      <c r="G295" s="11"/>
-    </row>
-    <row r="296" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H295" s="11"/>
+    </row>
+    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="14"/>
       <c r="B296" s="14">
         <v>2</v>
@@ -9939,16 +10271,17 @@
       <c r="C296" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="D296" s="8"/>
-      <c r="E296" s="9" t="s">
+      <c r="D296" s="20"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9" t="s">
+      <c r="G296" s="9"/>
+      <c r="H296" s="9" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="14" t="s">
         <v>42</v>
       </c>
@@ -9958,16 +10291,17 @@
       <c r="C297" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="D297" s="28"/>
-      <c r="E297" s="11" t="s">
+      <c r="D297" s="16"/>
+      <c r="E297" s="28"/>
+      <c r="F297" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="F297" s="11"/>
-      <c r="G297" s="11" t="s">
+      <c r="G297" s="11"/>
+      <c r="H297" s="11" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A298" s="14" t="s">
         <v>42</v>
       </c>
@@ -9977,16 +10311,17 @@
       <c r="C298" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="D298" s="28"/>
-      <c r="E298" s="11" t="s">
+      <c r="D298" s="16"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="F298" s="11"/>
-      <c r="G298" s="11" t="s">
+      <c r="G298" s="11"/>
+      <c r="H298" s="11" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" s="14" t="s">
         <v>42</v>
       </c>
@@ -9996,16 +10331,17 @@
       <c r="C299" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="D299" s="28"/>
-      <c r="E299" s="11" t="s">
+      <c r="D299" s="16"/>
+      <c r="E299" s="28"/>
+      <c r="F299" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="F299" s="11"/>
-      <c r="G299" s="11" t="s">
+      <c r="G299" s="11"/>
+      <c r="H299" s="11" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="14"/>
       <c r="B300" s="14">
         <v>2</v>
@@ -10013,16 +10349,17 @@
       <c r="C300" s="20" t="s">
         <v>958</v>
       </c>
-      <c r="D300" s="8"/>
-      <c r="E300" s="9" t="s">
+      <c r="D300" s="20"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9" t="s">
+      <c r="G300" s="9"/>
+      <c r="H300" s="9" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="14" t="s">
         <v>42</v>
       </c>
@@ -10032,16 +10369,17 @@
       <c r="C301" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="D301" s="28"/>
-      <c r="E301" s="11" t="s">
+      <c r="D301" s="16"/>
+      <c r="E301" s="28"/>
+      <c r="F301" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11" t="s">
+      <c r="G301" s="11"/>
+      <c r="H301" s="11" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="14" t="s">
         <v>42</v>
       </c>
@@ -10051,16 +10389,17 @@
       <c r="C302" s="16" t="s">
         <v>964</v>
       </c>
-      <c r="D302" s="28"/>
-      <c r="E302" s="11" t="s">
+      <c r="D302" s="16"/>
+      <c r="E302" s="28"/>
+      <c r="F302" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="F302" s="11"/>
-      <c r="G302" s="11" t="s">
+      <c r="G302" s="11"/>
+      <c r="H302" s="11" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A303" s="15"/>
       <c r="B303" s="15">
         <v>1</v>
@@ -10068,16 +10407,17 @@
       <c r="C303" s="22" t="s">
         <v>967</v>
       </c>
-      <c r="D303" s="18" t="s">
+      <c r="D303" s="22"/>
+      <c r="E303" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="E303" s="11"/>
-      <c r="F303" s="13" t="s">
+      <c r="F303" s="11"/>
+      <c r="G303" s="13" t="s">
         <v>969</v>
       </c>
-      <c r="G303" s="11"/>
-    </row>
-    <row r="304" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H303" s="11"/>
+    </row>
+    <row r="304" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A304" s="14" t="s">
         <v>42</v>
       </c>
@@ -10087,16 +10427,17 @@
       <c r="C304" s="16" t="s">
         <v>970</v>
       </c>
-      <c r="D304" s="28"/>
-      <c r="E304" s="11" t="s">
+      <c r="D304" s="16"/>
+      <c r="E304" s="28"/>
+      <c r="F304" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="F304" s="11"/>
-      <c r="G304" s="11" t="s">
+      <c r="G304" s="11"/>
+      <c r="H304" s="11" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="14" t="s">
         <v>42</v>
       </c>
@@ -10106,16 +10447,17 @@
       <c r="C305" s="16" t="s">
         <v>973</v>
       </c>
-      <c r="D305" s="28"/>
-      <c r="E305" s="11" t="s">
+      <c r="D305" s="16"/>
+      <c r="E305" s="28"/>
+      <c r="F305" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="F305" s="11"/>
-      <c r="G305" s="11" t="s">
+      <c r="G305" s="11"/>
+      <c r="H305" s="11" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="14" t="s">
         <v>42</v>
       </c>
@@ -10125,16 +10467,17 @@
       <c r="C306" s="16" t="s">
         <v>976</v>
       </c>
-      <c r="D306" s="28"/>
-      <c r="E306" s="11" t="s">
+      <c r="D306" s="16"/>
+      <c r="E306" s="28"/>
+      <c r="F306" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="F306" s="11"/>
-      <c r="G306" s="11" t="s">
+      <c r="G306" s="11"/>
+      <c r="H306" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A307" s="14" t="s">
         <v>42</v>
       </c>
@@ -10144,16 +10487,17 @@
       <c r="C307" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="D307" s="28"/>
-      <c r="E307" s="11" t="s">
+      <c r="D307" s="16"/>
+      <c r="E307" s="28"/>
+      <c r="F307" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="F307" s="11"/>
-      <c r="G307" s="11" t="s">
+      <c r="G307" s="11"/>
+      <c r="H307" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" s="14" t="s">
         <v>42</v>
       </c>
@@ -10163,16 +10507,17 @@
       <c r="C308" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="D308" s="28"/>
-      <c r="E308" s="11" t="s">
+      <c r="D308" s="16"/>
+      <c r="E308" s="28"/>
+      <c r="F308" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="F308" s="11"/>
-      <c r="G308" s="11" t="s">
+      <c r="G308" s="11"/>
+      <c r="H308" s="11" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="15"/>
       <c r="B309" s="15">
         <v>1</v>
@@ -10180,16 +10525,17 @@
       <c r="C309" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="D309" s="22"/>
+      <c r="E309" s="18" t="s">
         <v>986</v>
       </c>
-      <c r="E309" s="11"/>
-      <c r="F309" s="13" t="s">
+      <c r="F309" s="11"/>
+      <c r="G309" s="13" t="s">
         <v>987</v>
       </c>
-      <c r="G309" s="11"/>
-    </row>
-    <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H309" s="11"/>
+    </row>
+    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="14">
         <v>2</v>
@@ -10197,16 +10543,17 @@
       <c r="C310" s="20" t="s">
         <v>988</v>
       </c>
-      <c r="D310" s="8"/>
-      <c r="E310" s="9" t="s">
+      <c r="D310" s="20"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9" t="s">
+      <c r="G310" s="9"/>
+      <c r="H310" s="9" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A311" s="14" t="s">
         <v>42</v>
       </c>
@@ -10216,16 +10563,17 @@
       <c r="C311" s="16" t="s">
         <v>991</v>
       </c>
-      <c r="D311" s="28"/>
-      <c r="E311" s="11" t="s">
+      <c r="D311" s="16"/>
+      <c r="E311" s="28"/>
+      <c r="F311" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="F311" s="11"/>
-      <c r="G311" s="11" t="s">
+      <c r="G311" s="11"/>
+      <c r="H311" s="11" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="14">
         <v>2</v>
@@ -10233,16 +10581,17 @@
       <c r="C312" s="20" t="s">
         <v>994</v>
       </c>
-      <c r="D312" s="8"/>
-      <c r="E312" s="9" t="s">
+      <c r="D312" s="20"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9" t="s">
+      <c r="G312" s="9"/>
+      <c r="H312" s="9" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A313" s="14" t="s">
         <v>42</v>
       </c>
@@ -10252,16 +10601,17 @@
       <c r="C313" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="D313" s="26"/>
-      <c r="E313" s="11" t="s">
+      <c r="D313" s="10"/>
+      <c r="E313" s="26"/>
+      <c r="F313" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="F313" s="11"/>
-      <c r="G313" s="11" t="s">
+      <c r="G313" s="11"/>
+      <c r="H313" s="11" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="14">
         <v>2</v>
@@ -10269,16 +10619,17 @@
       <c r="C314" s="20" t="s">
         <v>1000</v>
       </c>
-      <c r="D314" s="8"/>
-      <c r="E314" s="9" t="s">
+      <c r="D314" s="20"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="F314" s="9"/>
-      <c r="G314" s="9" t="s">
+      <c r="G314" s="9"/>
+      <c r="H314" s="9" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="14" t="s">
         <v>42</v>
       </c>
@@ -10288,16 +10639,17 @@
       <c r="C315" s="10" t="s">
         <v>1003</v>
       </c>
-      <c r="D315" s="26"/>
-      <c r="E315" s="11" t="s">
+      <c r="D315" s="10"/>
+      <c r="E315" s="26"/>
+      <c r="F315" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="F315" s="17"/>
-      <c r="G315" s="11" t="s">
+      <c r="G315" s="17"/>
+      <c r="H315" s="11" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="14">
         <v>3</v>
@@ -10305,16 +10657,17 @@
       <c r="C316" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="D316" s="26"/>
-      <c r="E316" s="11" t="s">
+      <c r="D316" s="10"/>
+      <c r="E316" s="26"/>
+      <c r="F316" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="F316" s="17"/>
-      <c r="G316" s="11" t="s">
+      <c r="G316" s="17"/>
+      <c r="H316" s="11" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A317" s="14" t="s">
         <v>42</v>
       </c>
@@ -10324,16 +10677,17 @@
       <c r="C317" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="D317" s="26"/>
-      <c r="E317" s="11" t="s">
+      <c r="D317" s="10"/>
+      <c r="E317" s="26"/>
+      <c r="F317" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="F317" s="11"/>
-      <c r="G317" s="11" t="s">
+      <c r="G317" s="11"/>
+      <c r="H317" s="11" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="14" t="s">
         <v>42</v>
       </c>
@@ -10343,16 +10697,17 @@
       <c r="C318" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="D318" s="26"/>
-      <c r="E318" s="11" t="s">
+      <c r="D318" s="10"/>
+      <c r="E318" s="26"/>
+      <c r="F318" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="F318" s="11"/>
-      <c r="G318" s="11" t="s">
+      <c r="G318" s="11"/>
+      <c r="H318" s="11" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="14"/>
       <c r="B319" s="14">
         <v>2</v>
@@ -10360,16 +10715,17 @@
       <c r="C319" s="20" t="s">
         <v>1015</v>
       </c>
-      <c r="D319" s="8"/>
-      <c r="E319" s="9" t="s">
+      <c r="D319" s="20"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="F319" s="9"/>
-      <c r="G319" s="9" t="s">
+      <c r="G319" s="9"/>
+      <c r="H319" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A320" s="14"/>
       <c r="B320" s="14">
         <v>3</v>
@@ -10377,16 +10733,17 @@
       <c r="C320" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D320" s="26"/>
-      <c r="E320" s="11" t="s">
+      <c r="D320" s="10"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="F320" s="11"/>
-      <c r="G320" s="11" t="s">
+      <c r="G320" s="11"/>
+      <c r="H320" s="11" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A321" s="14" t="s">
         <v>42</v>
       </c>
@@ -10396,16 +10753,17 @@
       <c r="C321" s="10" t="s">
         <v>1021</v>
       </c>
-      <c r="D321" s="26"/>
-      <c r="E321" s="11" t="s">
+      <c r="D321" s="10"/>
+      <c r="E321" s="26"/>
+      <c r="F321" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="F321" s="11"/>
-      <c r="G321" s="11" t="s">
+      <c r="G321" s="11"/>
+      <c r="H321" s="11" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="14"/>
       <c r="B322" s="14">
         <v>3</v>
@@ -10413,16 +10771,17 @@
       <c r="C322" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="D322" s="26"/>
-      <c r="E322" s="11" t="s">
+      <c r="D322" s="10"/>
+      <c r="E322" s="26"/>
+      <c r="F322" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="F322" s="11"/>
-      <c r="G322" s="11" t="s">
+      <c r="G322" s="11"/>
+      <c r="H322" s="11" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
         <v>42</v>
       </c>
@@ -10432,16 +10791,17 @@
       <c r="C323" s="10" t="s">
         <v>1027</v>
       </c>
-      <c r="D323" s="26"/>
-      <c r="E323" s="11" t="s">
+      <c r="D323" s="10"/>
+      <c r="E323" s="26"/>
+      <c r="F323" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="F323" s="11"/>
-      <c r="G323" s="11" t="s">
+      <c r="G323" s="11"/>
+      <c r="H323" s="11" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="14" t="s">
         <v>42</v>
       </c>
@@ -10451,16 +10811,17 @@
       <c r="C324" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="D324" s="26"/>
-      <c r="E324" s="11" t="s">
+      <c r="D324" s="10"/>
+      <c r="E324" s="26"/>
+      <c r="F324" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="F324" s="11"/>
-      <c r="G324" s="11" t="s">
+      <c r="G324" s="11"/>
+      <c r="H324" s="11" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="14"/>
       <c r="B325" s="14">
         <v>3</v>
@@ -10468,16 +10829,17 @@
       <c r="C325" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="D325" s="26"/>
-      <c r="E325" s="11" t="s">
+      <c r="D325" s="10"/>
+      <c r="E325" s="26"/>
+      <c r="F325" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="F325" s="11"/>
-      <c r="G325" s="11" t="s">
+      <c r="G325" s="11"/>
+      <c r="H325" s="11" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A326" s="14" t="s">
         <v>42</v>
       </c>
@@ -10487,16 +10849,17 @@
       <c r="C326" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="D326" s="26"/>
-      <c r="E326" s="11" t="s">
+      <c r="D326" s="10"/>
+      <c r="E326" s="26"/>
+      <c r="F326" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="F326" s="11"/>
-      <c r="G326" s="11" t="s">
+      <c r="G326" s="11"/>
+      <c r="H326" s="11" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="14" t="s">
         <v>42</v>
       </c>
@@ -10506,16 +10869,17 @@
       <c r="C327" s="10" t="s">
         <v>1039</v>
       </c>
-      <c r="D327" s="26"/>
-      <c r="E327" s="11" t="s">
+      <c r="D327" s="10"/>
+      <c r="E327" s="26"/>
+      <c r="F327" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="F327" s="11"/>
-      <c r="G327" s="11" t="s">
+      <c r="G327" s="11"/>
+      <c r="H327" s="11" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A328" s="14" t="s">
         <v>42</v>
       </c>
@@ -10525,16 +10889,17 @@
       <c r="C328" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="D328" s="26"/>
-      <c r="E328" s="11" t="s">
+      <c r="D328" s="10"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="F328" s="11"/>
-      <c r="G328" s="11" t="s">
+      <c r="G328" s="11"/>
+      <c r="H328" s="11" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="14"/>
       <c r="B329" s="14">
         <v>2</v>
@@ -10542,16 +10907,17 @@
       <c r="C329" s="20" t="s">
         <v>1045</v>
       </c>
-      <c r="D329" s="8"/>
-      <c r="E329" s="9" t="s">
+      <c r="D329" s="20"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9" t="s">
+      <c r="G329" s="9"/>
+      <c r="H329" s="9" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A330" s="14"/>
       <c r="B330" s="14">
         <v>3</v>
@@ -10559,16 +10925,17 @@
       <c r="C330" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="D330" s="26"/>
-      <c r="E330" s="11" t="s">
+      <c r="D330" s="10"/>
+      <c r="E330" s="26"/>
+      <c r="F330" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="F330" s="11"/>
-      <c r="G330" s="11" t="s">
+      <c r="G330" s="11"/>
+      <c r="H330" s="11" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A331" s="14" t="s">
         <v>42</v>
       </c>
@@ -10578,16 +10945,17 @@
       <c r="C331" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="D331" s="26"/>
-      <c r="E331" s="11" t="s">
+      <c r="D331" s="10"/>
+      <c r="E331" s="26"/>
+      <c r="F331" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="F331" s="11"/>
-      <c r="G331" s="11" t="s">
+      <c r="G331" s="11"/>
+      <c r="H331" s="11" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" s="14" t="s">
         <v>42</v>
       </c>
@@ -10597,16 +10965,17 @@
       <c r="C332" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="D332" s="26"/>
-      <c r="E332" s="11" t="s">
+      <c r="D332" s="10"/>
+      <c r="E332" s="26"/>
+      <c r="F332" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="F332" s="11"/>
-      <c r="G332" s="11" t="s">
+      <c r="G332" s="11"/>
+      <c r="H332" s="11" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
         <v>42</v>
       </c>
@@ -10616,16 +10985,17 @@
       <c r="C333" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D333" s="26"/>
-      <c r="E333" s="11" t="s">
+      <c r="D333" s="10"/>
+      <c r="E333" s="26"/>
+      <c r="F333" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="F333" s="11"/>
-      <c r="G333" s="11" t="s">
+      <c r="G333" s="11"/>
+      <c r="H333" s="11" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="14" t="s">
         <v>42</v>
       </c>
@@ -10635,16 +11005,17 @@
       <c r="C334" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="D334" s="26"/>
-      <c r="E334" s="11" t="s">
+      <c r="D334" s="10"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="F334" s="11"/>
-      <c r="G334" s="11" t="s">
+      <c r="G334" s="11"/>
+      <c r="H334" s="11" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="14" t="s">
         <v>42</v>
       </c>
@@ -10654,16 +11025,17 @@
       <c r="C335" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="D335" s="26"/>
-      <c r="E335" s="11" t="s">
+      <c r="D335" s="10"/>
+      <c r="E335" s="26"/>
+      <c r="F335" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="F335" s="11"/>
-      <c r="G335" s="11" t="s">
+      <c r="G335" s="11"/>
+      <c r="H335" s="11" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A336" s="14"/>
       <c r="B336" s="14">
         <v>3</v>
@@ -10671,16 +11043,17 @@
       <c r="C336" s="10" t="s">
         <v>1066</v>
       </c>
-      <c r="D336" s="26"/>
-      <c r="E336" s="11" t="s">
+      <c r="D336" s="10"/>
+      <c r="E336" s="26"/>
+      <c r="F336" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="F336" s="11"/>
-      <c r="G336" s="11" t="s">
+      <c r="G336" s="11"/>
+      <c r="H336" s="11" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A337" s="14" t="s">
         <v>42</v>
       </c>
@@ -10690,16 +11063,17 @@
       <c r="C337" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="D337" s="26"/>
-      <c r="E337" s="11" t="s">
+      <c r="D337" s="10"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="F337" s="11"/>
-      <c r="G337" s="11" t="s">
+      <c r="G337" s="11"/>
+      <c r="H337" s="11" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A338" s="14" t="s">
         <v>42</v>
       </c>
@@ -10709,16 +11083,17 @@
       <c r="C338" s="10" t="s">
         <v>1072</v>
       </c>
-      <c r="D338" s="26"/>
-      <c r="E338" s="11" t="s">
+      <c r="D338" s="10"/>
+      <c r="E338" s="26"/>
+      <c r="F338" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="F338" s="11"/>
-      <c r="G338" s="11" t="s">
+      <c r="G338" s="11"/>
+      <c r="H338" s="11" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A339" s="14" t="s">
         <v>42</v>
       </c>
@@ -10728,16 +11103,17 @@
       <c r="C339" s="10" t="s">
         <v>1075</v>
       </c>
-      <c r="D339" s="26"/>
-      <c r="E339" s="11" t="s">
+      <c r="D339" s="10"/>
+      <c r="E339" s="26"/>
+      <c r="F339" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="F339" s="11"/>
-      <c r="G339" s="11" t="s">
+      <c r="G339" s="11"/>
+      <c r="H339" s="11" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="14" t="s">
         <v>42</v>
       </c>
@@ -10747,16 +11123,17 @@
       <c r="C340" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="D340" s="26"/>
-      <c r="E340" s="11" t="s">
+      <c r="D340" s="10"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="F340" s="11"/>
-      <c r="G340" s="11" t="s">
+      <c r="G340" s="11"/>
+      <c r="H340" s="11" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="14"/>
       <c r="B341" s="14">
         <v>2</v>
@@ -10764,16 +11141,17 @@
       <c r="C341" s="20" t="s">
         <v>1081</v>
       </c>
-      <c r="D341" s="8"/>
-      <c r="E341" s="9" t="s">
+      <c r="D341" s="20"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="F341" s="9"/>
-      <c r="G341" s="9" t="s">
+      <c r="G341" s="9"/>
+      <c r="H341" s="9" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="14"/>
       <c r="B342" s="14">
         <v>3</v>
@@ -10781,16 +11159,17 @@
       <c r="C342" s="10" t="s">
         <v>1084</v>
       </c>
-      <c r="D342" s="26"/>
-      <c r="E342" s="11" t="s">
+      <c r="D342" s="10"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="F342" s="11"/>
-      <c r="G342" s="11" t="s">
+      <c r="G342" s="11"/>
+      <c r="H342" s="11" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A343" s="14" t="s">
         <v>42</v>
       </c>
@@ -10800,16 +11179,17 @@
       <c r="C343" s="10" t="s">
         <v>1087</v>
       </c>
-      <c r="D343" s="26"/>
-      <c r="E343" s="11" t="s">
+      <c r="D343" s="10"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="F343" s="11"/>
-      <c r="G343" s="11" t="s">
+      <c r="G343" s="11"/>
+      <c r="H343" s="11" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A344" s="14" t="s">
         <v>42</v>
       </c>
@@ -10819,16 +11199,17 @@
       <c r="C344" s="10" t="s">
         <v>1090</v>
       </c>
-      <c r="D344" s="26"/>
-      <c r="E344" s="11" t="s">
+      <c r="D344" s="10"/>
+      <c r="E344" s="26"/>
+      <c r="F344" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="F344" s="11"/>
-      <c r="G344" s="11" t="s">
+      <c r="G344" s="11"/>
+      <c r="H344" s="11" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A345" s="14" t="s">
         <v>42</v>
       </c>
@@ -10838,16 +11219,17 @@
       <c r="C345" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="D345" s="26"/>
-      <c r="E345" s="11" t="s">
+      <c r="D345" s="10"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="F345" s="11"/>
-      <c r="G345" s="11" t="s">
+      <c r="G345" s="11"/>
+      <c r="H345" s="11" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
         <v>42</v>
       </c>
@@ -10857,16 +11239,17 @@
       <c r="C346" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="D346" s="26"/>
-      <c r="E346" s="11" t="s">
+      <c r="D346" s="10"/>
+      <c r="E346" s="26"/>
+      <c r="F346" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="F346" s="11"/>
-      <c r="G346" s="11" t="s">
+      <c r="G346" s="11"/>
+      <c r="H346" s="11" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A347" s="14"/>
       <c r="B347" s="14">
         <v>3</v>
@@ -10874,16 +11257,17 @@
       <c r="C347" s="10" t="s">
         <v>1099</v>
       </c>
-      <c r="D347" s="26"/>
-      <c r="E347" s="11" t="s">
+      <c r="D347" s="10"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="F347" s="11"/>
-      <c r="G347" s="11" t="s">
+      <c r="G347" s="11"/>
+      <c r="H347" s="11" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A348" s="14" t="s">
         <v>42</v>
       </c>
@@ -10893,16 +11277,17 @@
       <c r="C348" s="10" t="s">
         <v>1102</v>
       </c>
-      <c r="D348" s="26"/>
-      <c r="E348" s="11" t="s">
+      <c r="D348" s="10"/>
+      <c r="E348" s="26"/>
+      <c r="F348" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="F348" s="11"/>
-      <c r="G348" s="11" t="s">
+      <c r="G348" s="11"/>
+      <c r="H348" s="11" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A349" s="14"/>
       <c r="B349" s="14">
         <v>3</v>
@@ -10910,16 +11295,17 @@
       <c r="C349" s="10" t="s">
         <v>1105</v>
       </c>
-      <c r="D349" s="26"/>
-      <c r="E349" s="11" t="s">
+      <c r="D349" s="10"/>
+      <c r="E349" s="26"/>
+      <c r="F349" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="F349" s="11"/>
-      <c r="G349" s="11" t="s">
+      <c r="G349" s="11"/>
+      <c r="H349" s="11" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A350" s="14" t="s">
         <v>42</v>
       </c>
@@ -10929,16 +11315,17 @@
       <c r="C350" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="D350" s="26"/>
-      <c r="E350" s="11" t="s">
+      <c r="D350" s="10"/>
+      <c r="E350" s="26"/>
+      <c r="F350" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="F350" s="11"/>
-      <c r="G350" s="11" t="s">
+      <c r="G350" s="11"/>
+      <c r="H350" s="11" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A351" s="14"/>
       <c r="B351" s="14">
         <v>3</v>
@@ -10946,16 +11333,17 @@
       <c r="C351" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="D351" s="26"/>
-      <c r="E351" s="11" t="s">
+      <c r="D351" s="10"/>
+      <c r="E351" s="26"/>
+      <c r="F351" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="F351" s="11"/>
-      <c r="G351" s="11" t="s">
+      <c r="G351" s="11"/>
+      <c r="H351" s="11" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="14" t="s">
         <v>42</v>
       </c>
@@ -10965,16 +11353,17 @@
       <c r="C352" s="10" t="s">
         <v>1114</v>
       </c>
-      <c r="D352" s="26"/>
-      <c r="E352" s="11" t="s">
+      <c r="D352" s="10"/>
+      <c r="E352" s="26"/>
+      <c r="F352" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="F352" s="11"/>
-      <c r="G352" s="11" t="s">
+      <c r="G352" s="11"/>
+      <c r="H352" s="11" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A353" s="14" t="s">
         <v>42</v>
       </c>
@@ -10984,16 +11373,17 @@
       <c r="C353" s="10" t="s">
         <v>1117</v>
       </c>
-      <c r="D353" s="26"/>
-      <c r="E353" s="11" t="s">
+      <c r="D353" s="10"/>
+      <c r="E353" s="26"/>
+      <c r="F353" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="F353" s="11"/>
-      <c r="G353" s="11" t="s">
+      <c r="G353" s="11"/>
+      <c r="H353" s="11" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A354" s="14" t="s">
         <v>42</v>
       </c>
@@ -11003,16 +11393,17 @@
       <c r="C354" s="10" t="s">
         <v>1120</v>
       </c>
-      <c r="D354" s="26"/>
-      <c r="E354" s="11" t="s">
+      <c r="D354" s="10"/>
+      <c r="E354" s="26"/>
+      <c r="F354" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="F354" s="11"/>
-      <c r="G354" s="11" t="s">
+      <c r="G354" s="11"/>
+      <c r="H354" s="11" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A355" s="14"/>
       <c r="B355" s="14">
         <v>3</v>
@@ -11020,16 +11411,17 @@
       <c r="C355" s="10" t="s">
         <v>1123</v>
       </c>
-      <c r="D355" s="26"/>
-      <c r="E355" s="11" t="s">
+      <c r="D355" s="10"/>
+      <c r="E355" s="26"/>
+      <c r="F355" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11" t="s">
+      <c r="G355" s="11"/>
+      <c r="H355" s="11" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A356" s="14" t="s">
         <v>42</v>
       </c>
@@ -11039,16 +11431,17 @@
       <c r="C356" s="10" t="s">
         <v>1126</v>
       </c>
-      <c r="D356" s="26"/>
-      <c r="E356" s="11" t="s">
+      <c r="D356" s="10"/>
+      <c r="E356" s="26"/>
+      <c r="F356" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="F356" s="11"/>
-      <c r="G356" s="11" t="s">
+      <c r="G356" s="11"/>
+      <c r="H356" s="11" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A357" s="14" t="s">
         <v>42</v>
       </c>
@@ -11058,16 +11451,17 @@
       <c r="C357" s="10" t="s">
         <v>1127</v>
       </c>
-      <c r="D357" s="26"/>
-      <c r="E357" s="11" t="s">
+      <c r="D357" s="10"/>
+      <c r="E357" s="26"/>
+      <c r="F357" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11" t="s">
+      <c r="G357" s="11"/>
+      <c r="H357" s="11" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="14"/>
       <c r="B358" s="14">
         <v>3</v>
@@ -11075,16 +11469,17 @@
       <c r="C358" s="10" t="s">
         <v>1130</v>
       </c>
-      <c r="D358" s="26"/>
-      <c r="E358" s="11" t="s">
+      <c r="D358" s="10"/>
+      <c r="E358" s="26"/>
+      <c r="F358" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11" t="s">
+      <c r="G358" s="11"/>
+      <c r="H358" s="11" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A359" s="14" t="s">
         <v>42</v>
       </c>
@@ -11094,16 +11489,17 @@
       <c r="C359" s="10" t="s">
         <v>1133</v>
       </c>
-      <c r="D359" s="26"/>
-      <c r="E359" s="11" t="s">
+      <c r="D359" s="10"/>
+      <c r="E359" s="26"/>
+      <c r="F359" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11" t="s">
+      <c r="G359" s="11"/>
+      <c r="H359" s="11" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A360" s="14" t="s">
         <v>42</v>
       </c>
@@ -11113,16 +11509,17 @@
       <c r="C360" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="D360" s="26"/>
-      <c r="E360" s="11" t="s">
+      <c r="D360" s="10"/>
+      <c r="E360" s="26"/>
+      <c r="F360" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="F360" s="11"/>
-      <c r="G360" s="11" t="s">
+      <c r="G360" s="11"/>
+      <c r="H360" s="11" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A361" s="14"/>
       <c r="B361" s="14">
         <v>3</v>
@@ -11130,16 +11527,17 @@
       <c r="C361" s="10" t="s">
         <v>1139</v>
       </c>
-      <c r="D361" s="26"/>
-      <c r="E361" s="11" t="s">
+      <c r="D361" s="10"/>
+      <c r="E361" s="26"/>
+      <c r="F361" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11" t="s">
+      <c r="G361" s="11"/>
+      <c r="H361" s="11" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A362" s="14" t="s">
         <v>42</v>
       </c>
@@ -11149,16 +11547,17 @@
       <c r="C362" s="10" t="s">
         <v>1142</v>
       </c>
-      <c r="D362" s="26"/>
-      <c r="E362" s="11" t="s">
+      <c r="D362" s="10"/>
+      <c r="E362" s="26"/>
+      <c r="F362" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11" t="s">
+      <c r="G362" s="11"/>
+      <c r="H362" s="11" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" s="14" t="s">
         <v>42</v>
       </c>
@@ -11168,16 +11567,17 @@
       <c r="C363" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="D363" s="26"/>
-      <c r="E363" s="11" t="s">
+      <c r="D363" s="10"/>
+      <c r="E363" s="26"/>
+      <c r="F363" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11" t="s">
+      <c r="G363" s="11"/>
+      <c r="H363" s="11" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A364" s="14" t="s">
         <v>42</v>
       </c>
@@ -11187,16 +11587,17 @@
       <c r="C364" s="10" t="s">
         <v>1148</v>
       </c>
-      <c r="D364" s="26"/>
-      <c r="E364" s="11" t="s">
+      <c r="D364" s="10"/>
+      <c r="E364" s="26"/>
+      <c r="F364" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="F364" s="11"/>
-      <c r="G364" s="11" t="s">
+      <c r="G364" s="11"/>
+      <c r="H364" s="11" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="14"/>
       <c r="B365" s="14">
         <v>2</v>
@@ -11204,16 +11605,17 @@
       <c r="C365" s="20" t="s">
         <v>1151</v>
       </c>
-      <c r="D365" s="8"/>
-      <c r="E365" s="9" t="s">
+      <c r="D365" s="20"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="F365" s="9"/>
-      <c r="G365" s="9" t="s">
+      <c r="G365" s="9"/>
+      <c r="H365" s="9" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="14"/>
       <c r="B366" s="14">
         <v>3</v>
@@ -11221,16 +11623,17 @@
       <c r="C366" s="10" t="s">
         <v>1154</v>
       </c>
-      <c r="D366" s="26"/>
-      <c r="E366" s="11" t="s">
+      <c r="D366" s="10"/>
+      <c r="E366" s="26"/>
+      <c r="F366" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="F366" s="11"/>
-      <c r="G366" s="11" t="s">
+      <c r="G366" s="11"/>
+      <c r="H366" s="11" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="14" t="s">
         <v>42</v>
       </c>
@@ -11240,16 +11643,17 @@
       <c r="C367" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="D367" s="26"/>
-      <c r="E367" s="11" t="s">
+      <c r="D367" s="10"/>
+      <c r="E367" s="26"/>
+      <c r="F367" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="F367" s="11"/>
-      <c r="G367" s="11" t="s">
+      <c r="G367" s="11"/>
+      <c r="H367" s="11" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="14" t="s">
         <v>42</v>
       </c>
@@ -11259,16 +11663,17 @@
       <c r="C368" s="10" t="s">
         <v>1160</v>
       </c>
-      <c r="D368" s="26"/>
-      <c r="E368" s="11" t="s">
+      <c r="D368" s="10"/>
+      <c r="E368" s="26"/>
+      <c r="F368" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="F368" s="11"/>
-      <c r="G368" s="11" t="s">
+      <c r="G368" s="11"/>
+      <c r="H368" s="11" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="14"/>
       <c r="B369" s="14">
         <v>2</v>
@@ -11276,16 +11681,17 @@
       <c r="C369" s="20" t="s">
         <v>1163</v>
       </c>
-      <c r="D369" s="8"/>
-      <c r="E369" s="9" t="s">
+      <c r="D369" s="20"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="F369" s="9"/>
-      <c r="G369" s="9" t="s">
+      <c r="G369" s="9"/>
+      <c r="H369" s="9" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A370" s="14"/>
       <c r="B370" s="14">
         <v>3</v>
@@ -11293,16 +11699,17 @@
       <c r="C370" s="10" t="s">
         <v>1166</v>
       </c>
-      <c r="D370" s="26"/>
-      <c r="E370" s="11" t="s">
+      <c r="D370" s="10"/>
+      <c r="E370" s="26"/>
+      <c r="F370" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11" t="s">
+      <c r="G370" s="11"/>
+      <c r="H370" s="11" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A371" s="14" t="s">
         <v>42</v>
       </c>
@@ -11312,16 +11719,17 @@
       <c r="C371" s="10" t="s">
         <v>1169</v>
       </c>
-      <c r="D371" s="26"/>
-      <c r="E371" s="11" t="s">
+      <c r="D371" s="10"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11" t="s">
+      <c r="G371" s="11"/>
+      <c r="H371" s="11" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="14" t="s">
         <v>42</v>
       </c>
@@ -11331,16 +11739,17 @@
       <c r="C372" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="D372" s="26"/>
-      <c r="E372" s="11" t="s">
+      <c r="D372" s="10"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="F372" s="11"/>
-      <c r="G372" s="11" t="s">
+      <c r="G372" s="11"/>
+      <c r="H372" s="11" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A373" s="14" t="s">
         <v>42</v>
       </c>
@@ -11350,16 +11759,17 @@
       <c r="C373" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="D373" s="26"/>
-      <c r="E373" s="11" t="s">
+      <c r="D373" s="10"/>
+      <c r="E373" s="26"/>
+      <c r="F373" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="F373" s="11"/>
-      <c r="G373" s="11" t="s">
+      <c r="G373" s="11"/>
+      <c r="H373" s="11" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A374" s="14" t="s">
         <v>42</v>
       </c>
@@ -11369,16 +11779,17 @@
       <c r="C374" s="10" t="s">
         <v>1178</v>
       </c>
-      <c r="D374" s="26"/>
-      <c r="E374" s="11" t="s">
+      <c r="D374" s="10"/>
+      <c r="E374" s="26"/>
+      <c r="F374" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11" t="s">
+      <c r="G374" s="11"/>
+      <c r="H374" s="11" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A375" s="14" t="s">
         <v>42</v>
       </c>
@@ -11388,16 +11799,17 @@
       <c r="C375" s="10" t="s">
         <v>1181</v>
       </c>
-      <c r="D375" s="26"/>
-      <c r="E375" s="11" t="s">
+      <c r="D375" s="10"/>
+      <c r="E375" s="26"/>
+      <c r="F375" s="11" t="s">
         <v>1182</v>
       </c>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11" t="s">
+      <c r="G375" s="11"/>
+      <c r="H375" s="11" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A376" s="14" t="s">
         <v>42</v>
       </c>
@@ -11407,12 +11819,13 @@
       <c r="C376" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="D376" s="26"/>
-      <c r="E376" s="11" t="s">
+      <c r="D376" s="10"/>
+      <c r="E376" s="26"/>
+      <c r="F376" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="F376" s="11"/>
-      <c r="G376" s="11" t="s">
+      <c r="G376" s="11"/>
+      <c r="H376" s="11" t="s">
         <v>1186</v>
       </c>
     </row>
